--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7EA7A-E8BE-4523-88E4-7695C1C9B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DDF832-8E0E-4FE0-9803-522A59C10200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>Cotton.Leaf.ExtinctionCoefficientError</t>
   </si>
   <si>
-    <t>Cotton.Leaf.SpecificArea</t>
-  </si>
-  <si>
     <t>SQ.N</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>TotalPAWmm</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.SpecificAreaCanopy</t>
   </si>
 </sst>
 </file>
@@ -944,10 +944,10 @@
   <dimension ref="A1:EX179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="CG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CO2" sqref="CO2"/>
+      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1219,7 +1219,7 @@
         <v>144</v>
       </c>
       <c r="AQ1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="AR1" t="s">
         <v>66</v>
@@ -1234,10 +1234,10 @@
         <v>114</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX1" t="s">
         <v>115</v>
@@ -1246,19 +1246,19 @@
         <v>116</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BA1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="BE1" t="s">
         <v>117</v>
@@ -1288,7 +1288,7 @@
         <v>122</v>
       </c>
       <c r="BN1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
@@ -1300,10 +1300,10 @@
         <v>141</v>
       </c>
       <c r="BR1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BS1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BT1" t="s">
         <v>123</v>
@@ -1369,85 +1369,85 @@
         <v>74</v>
       </c>
       <c r="CO1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CP1" t="s">
         <v>100</v>
       </c>
       <c r="CQ1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CR1" t="s">
         <v>89</v>
       </c>
       <c r="CS1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CT1" t="s">
         <v>90</v>
       </c>
       <c r="CU1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CV1" t="s">
         <v>98</v>
       </c>
       <c r="CW1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CX1" t="s">
         <v>97</v>
       </c>
       <c r="CY1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CZ1" t="s">
         <v>96</v>
       </c>
       <c r="DA1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DB1" t="s">
         <v>105</v>
       </c>
       <c r="DC1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DD1" t="s">
         <v>106</v>
       </c>
       <c r="DE1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DF1" t="s">
         <v>95</v>
       </c>
       <c r="DG1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DH1" t="s">
         <v>94</v>
       </c>
       <c r="DI1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DJ1" t="s">
         <v>93</v>
       </c>
       <c r="DK1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DL1" t="s">
         <v>92</v>
       </c>
       <c r="DM1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DN1" t="s">
         <v>91</v>
       </c>
       <c r="DO1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DP1" t="s">
         <v>46</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DDF832-8E0E-4FE0-9803-522A59C10200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608437E8-69BE-4ABE-B203-A7BE37DE1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -944,154 +944,154 @@
   <dimension ref="A1:EX179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BL98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
+      <selection pane="bottomRight" activeCell="BT130" sqref="BT130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="37.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="19.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="26.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="18.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.73046875" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="33.265625" customWidth="1"/>
-    <col min="22" max="22" width="31.59765625" customWidth="1"/>
-    <col min="23" max="23" width="34.86328125" customWidth="1"/>
-    <col min="24" max="24" width="13.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
-    <col min="27" max="27" width="14.86328125" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" customWidth="1"/>
-    <col min="29" max="29" width="17.73046875" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="16.59765625" customWidth="1"/>
-    <col min="32" max="32" width="29.3984375" customWidth="1"/>
-    <col min="33" max="33" width="33.86328125" customWidth="1"/>
-    <col min="34" max="34" width="33.59765625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" customWidth="1"/>
     <col min="35" max="35" width="38" customWidth="1"/>
-    <col min="36" max="36" width="21.1328125" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" customWidth="1"/>
-    <col min="39" max="39" width="25.1328125" customWidth="1"/>
-    <col min="40" max="40" width="29.59765625" customWidth="1"/>
-    <col min="41" max="41" width="26.265625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" customWidth="1"/>
+    <col min="40" max="40" width="29.5703125" customWidth="1"/>
+    <col min="41" max="41" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" style="6" customWidth="1"/>
-    <col min="53" max="53" width="7.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.73046875" style="6" customWidth="1"/>
-    <col min="57" max="57" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" style="6" customWidth="1"/>
+    <col min="57" max="57" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.73046875" customWidth="1"/>
-    <col min="67" max="67" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="32" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="12" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="12" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="12" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="12" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="13" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="13" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="7" bestFit="1" customWidth="1"/>
     <col min="138" max="145" width="18" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="147" max="154" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="154" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1595,12 +1595,24 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="Q2" s="1">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1">
+        <v>71</v>
+      </c>
+      <c r="T2" s="1">
+        <v>105</v>
+      </c>
+      <c r="U2" s="1">
+        <v>126</v>
+      </c>
+      <c r="V2" s="1">
+        <v>151</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -1734,7 +1746,7 @@
       <c r="EW2" s="4"/>
       <c r="EX2" s="4"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1777,11 +1789,21 @@
       <c r="Q3" s="1">
         <v>9</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="R3" s="1">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1">
+        <v>105</v>
+      </c>
+      <c r="U3" s="1">
+        <v>126</v>
+      </c>
+      <c r="V3" s="1">
+        <v>151</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -1915,7 +1937,7 @@
       <c r="EW3" s="4"/>
       <c r="EX3" s="4"/>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1941,6 +1963,24 @@
       <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1">
+        <v>71</v>
+      </c>
+      <c r="T4" s="1">
+        <v>105</v>
+      </c>
+      <c r="U4" s="1">
+        <v>126</v>
+      </c>
+      <c r="V4" s="1">
+        <v>151</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AE4" s="4"/>
@@ -2063,7 +2103,7 @@
         <v>16.010631650436061</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2089,6 +2129,24 @@
       <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1">
+        <v>52</v>
+      </c>
+      <c r="S5" s="1">
+        <v>71</v>
+      </c>
+      <c r="T5" s="1">
+        <v>105</v>
+      </c>
+      <c r="U5" s="1">
+        <v>126</v>
+      </c>
+      <c r="V5" s="1">
+        <v>151</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AE5" s="4"/>
@@ -2211,7 +2269,7 @@
         <v>16.493265197697319</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2251,14 +2309,24 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>9</v>
+      </c>
       <c r="R6" s="1">
         <v>52</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="S6" s="1">
+        <v>71</v>
+      </c>
+      <c r="T6" s="1">
+        <v>105</v>
+      </c>
+      <c r="U6" s="1">
+        <v>126</v>
+      </c>
+      <c r="V6" s="1">
+        <v>151</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -2391,7 +2459,7 @@
       <c r="EW6" s="4"/>
       <c r="EX6" s="4"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2417,6 +2485,24 @@
       <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>9</v>
+      </c>
+      <c r="R7" s="1">
+        <v>52</v>
+      </c>
+      <c r="S7" s="1">
+        <v>71</v>
+      </c>
+      <c r="T7" s="1">
+        <v>105</v>
+      </c>
+      <c r="U7" s="1">
+        <v>126</v>
+      </c>
+      <c r="V7" s="1">
+        <v>151</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AE7" s="4"/>
@@ -2539,7 +2625,7 @@
         <v>15.441330384007751</v>
       </c>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2573,6 +2659,24 @@
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="1">
+        <v>9</v>
+      </c>
+      <c r="R8" s="1">
+        <v>52</v>
+      </c>
+      <c r="S8" s="1">
+        <v>71</v>
+      </c>
+      <c r="T8" s="1">
+        <v>105</v>
+      </c>
+      <c r="U8" s="1">
+        <v>126</v>
+      </c>
+      <c r="V8" s="1">
+        <v>151</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -2648,7 +2752,7 @@
       <c r="DG8" s="1"/>
       <c r="DI8" s="1"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2683,6 +2787,24 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="1">
+        <v>9</v>
+      </c>
+      <c r="R9" s="1">
+        <v>52</v>
+      </c>
+      <c r="S9" s="1">
+        <v>71</v>
+      </c>
+      <c r="T9" s="1">
+        <v>105</v>
+      </c>
+      <c r="U9" s="1">
+        <v>126</v>
+      </c>
+      <c r="V9" s="1">
+        <v>151</v>
+      </c>
       <c r="AC9" s="1"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -2804,7 +2926,7 @@
         <v>16.080741741348483</v>
       </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2839,6 +2961,24 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
+      <c r="Q10" s="1">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1">
+        <v>52</v>
+      </c>
+      <c r="S10" s="1">
+        <v>71</v>
+      </c>
+      <c r="T10" s="1">
+        <v>105</v>
+      </c>
+      <c r="U10" s="1">
+        <v>126</v>
+      </c>
+      <c r="V10" s="1">
+        <v>151</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -2960,7 +3100,7 @@
         <v>17.483321492934543</v>
       </c>
     </row>
-    <row r="11" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2996,8 +3136,23 @@
         <v>90.909090909090907</v>
       </c>
       <c r="L11" s="1"/>
+      <c r="Q11" s="1">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1">
+        <v>52</v>
+      </c>
       <c r="S11" s="1">
         <v>71</v>
+      </c>
+      <c r="T11" s="1">
+        <v>105</v>
+      </c>
+      <c r="U11" s="1">
+        <v>126</v>
+      </c>
+      <c r="V11" s="1">
+        <v>151</v>
       </c>
       <c r="AC11" s="1">
         <v>29.15</v>
@@ -3164,7 +3319,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3190,6 +3345,24 @@
       <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>52</v>
+      </c>
+      <c r="S12" s="1">
+        <v>71</v>
+      </c>
+      <c r="T12" s="1">
+        <v>105</v>
+      </c>
+      <c r="U12" s="1">
+        <v>126</v>
+      </c>
+      <c r="V12" s="1">
+        <v>151</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AE12" s="4"/>
@@ -3311,7 +3484,7 @@
         <v>16.894329669147588</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3345,6 +3518,24 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
+      <c r="Q13" s="1">
+        <v>9</v>
+      </c>
+      <c r="R13" s="1">
+        <v>52</v>
+      </c>
+      <c r="S13" s="1">
+        <v>71</v>
+      </c>
+      <c r="T13" s="1">
+        <v>105</v>
+      </c>
+      <c r="U13" s="1">
+        <v>126</v>
+      </c>
+      <c r="V13" s="1">
+        <v>151</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -3419,7 +3610,7 @@
       <c r="DG13" s="1"/>
       <c r="DI13" s="1"/>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3445,6 +3636,24 @@
       <c r="K14" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>9</v>
+      </c>
+      <c r="R14" s="1">
+        <v>52</v>
+      </c>
+      <c r="S14" s="1">
+        <v>71</v>
+      </c>
+      <c r="T14" s="1">
+        <v>105</v>
+      </c>
+      <c r="U14" s="1">
+        <v>126</v>
+      </c>
+      <c r="V14" s="1">
+        <v>151</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AE14" s="4"/>
@@ -3566,7 +3775,7 @@
         <v>17.085661115823875</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3600,6 +3809,24 @@
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
+      <c r="Q15" s="1">
+        <v>9</v>
+      </c>
+      <c r="R15" s="1">
+        <v>52</v>
+      </c>
+      <c r="S15" s="1">
+        <v>71</v>
+      </c>
+      <c r="T15" s="1">
+        <v>105</v>
+      </c>
+      <c r="U15" s="1">
+        <v>126</v>
+      </c>
+      <c r="V15" s="1">
+        <v>151</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -3674,7 +3901,7 @@
       <c r="DG15" s="1"/>
       <c r="DI15" s="1"/>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3699,6 +3926,24 @@
       <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>9</v>
+      </c>
+      <c r="R16" s="1">
+        <v>52</v>
+      </c>
+      <c r="S16" s="1">
+        <v>71</v>
+      </c>
+      <c r="T16" s="1">
+        <v>105</v>
+      </c>
+      <c r="U16" s="1">
+        <v>126</v>
+      </c>
+      <c r="V16" s="1">
+        <v>151</v>
       </c>
       <c r="AC16" s="1">
         <v>66.400000000000006</v>
@@ -3871,7 +4116,7 @@
         <v>17.522482067151365</v>
       </c>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3905,6 +4150,24 @@
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
+      <c r="Q17" s="1">
+        <v>9</v>
+      </c>
+      <c r="R17" s="1">
+        <v>52</v>
+      </c>
+      <c r="S17" s="1">
+        <v>71</v>
+      </c>
+      <c r="T17" s="1">
+        <v>105</v>
+      </c>
+      <c r="U17" s="1">
+        <v>126</v>
+      </c>
+      <c r="V17" s="1">
+        <v>151</v>
+      </c>
       <c r="AC17" s="1"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -3979,7 +4242,7 @@
       <c r="DG17" s="1"/>
       <c r="DI17" s="1"/>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4004,6 +4267,24 @@
       <c r="K18" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>9</v>
+      </c>
+      <c r="R18" s="1">
+        <v>52</v>
+      </c>
+      <c r="S18" s="1">
+        <v>71</v>
+      </c>
+      <c r="T18" s="1">
+        <v>105</v>
+      </c>
+      <c r="U18" s="1">
+        <v>126</v>
+      </c>
+      <c r="V18" s="1">
+        <v>151</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AE18" s="4"/>
@@ -4125,7 +4406,7 @@
         <v>15.923708376117537</v>
       </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4160,6 +4441,24 @@
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
+      <c r="Q19" s="1">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1">
+        <v>52</v>
+      </c>
+      <c r="S19" s="1">
+        <v>71</v>
+      </c>
+      <c r="T19" s="1">
+        <v>105</v>
+      </c>
+      <c r="U19" s="1">
+        <v>126</v>
+      </c>
+      <c r="V19" s="1">
+        <v>151</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -4280,7 +4579,7 @@
         <v>15.238380573234144</v>
       </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -4306,6 +4605,24 @@
       <c r="K20" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>9</v>
+      </c>
+      <c r="R20" s="1">
+        <v>52</v>
+      </c>
+      <c r="S20" s="1">
+        <v>71</v>
+      </c>
+      <c r="T20" s="1">
+        <v>105</v>
+      </c>
+      <c r="U20" s="1">
+        <v>126</v>
+      </c>
+      <c r="V20" s="1">
+        <v>151</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AE20" s="4"/>
@@ -4428,7 +4745,7 @@
         <v>17.292592528779501</v>
       </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4454,6 +4771,24 @@
       <c r="K21" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>9</v>
+      </c>
+      <c r="R21" s="1">
+        <v>52</v>
+      </c>
+      <c r="S21" s="1">
+        <v>71</v>
+      </c>
+      <c r="T21" s="1">
+        <v>105</v>
+      </c>
+      <c r="U21" s="1">
+        <v>126</v>
+      </c>
+      <c r="V21" s="1">
+        <v>151</v>
       </c>
       <c r="AC21" s="1">
         <v>106.70000000000002</v>
@@ -4581,7 +4916,7 @@
       <c r="DG21" s="1"/>
       <c r="DI21" s="1"/>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -4616,8 +4951,23 @@
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q22" s="1">
+        <v>9</v>
+      </c>
+      <c r="R22" s="1">
+        <v>52</v>
+      </c>
+      <c r="S22" s="1">
+        <v>71</v>
+      </c>
       <c r="T22" s="1">
         <v>105</v>
+      </c>
+      <c r="U22" s="1">
+        <v>126</v>
+      </c>
+      <c r="V22" s="1">
+        <v>151</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AE22" s="4"/>
@@ -4697,7 +5047,7 @@
       <c r="DG22" s="1"/>
       <c r="DI22" s="1"/>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4723,6 +5073,24 @@
       <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>9</v>
+      </c>
+      <c r="R23" s="1">
+        <v>52</v>
+      </c>
+      <c r="S23" s="1">
+        <v>71</v>
+      </c>
+      <c r="T23" s="1">
+        <v>105</v>
+      </c>
+      <c r="U23" s="1">
+        <v>126</v>
+      </c>
+      <c r="V23" s="1">
+        <v>151</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AE23" s="4"/>
@@ -4844,7 +5212,7 @@
         <v>15.945993669580185</v>
       </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -4878,6 +5246,24 @@
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
+      <c r="Q24" s="1">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <v>52</v>
+      </c>
+      <c r="S24" s="1">
+        <v>71</v>
+      </c>
+      <c r="T24" s="1">
+        <v>105</v>
+      </c>
+      <c r="U24" s="1">
+        <v>126</v>
+      </c>
+      <c r="V24" s="1">
+        <v>151</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -4952,7 +5338,7 @@
       <c r="DG24" s="1"/>
       <c r="DI24" s="1"/>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -4978,6 +5364,24 @@
       <c r="K25" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>9</v>
+      </c>
+      <c r="R25" s="1">
+        <v>52</v>
+      </c>
+      <c r="S25" s="1">
+        <v>71</v>
+      </c>
+      <c r="T25" s="1">
+        <v>105</v>
+      </c>
+      <c r="U25" s="1">
+        <v>126</v>
+      </c>
+      <c r="V25" s="1">
+        <v>151</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AE25" s="4"/>
@@ -5100,7 +5504,7 @@
         <v>18.034085436564901</v>
       </c>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5126,6 +5530,24 @@
       <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>9</v>
+      </c>
+      <c r="R26" s="1">
+        <v>52</v>
+      </c>
+      <c r="S26" s="1">
+        <v>71</v>
+      </c>
+      <c r="T26" s="1">
+        <v>105</v>
+      </c>
+      <c r="U26" s="1">
+        <v>126</v>
+      </c>
+      <c r="V26" s="1">
+        <v>151</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AE26" s="4"/>
@@ -5248,7 +5670,7 @@
         <v>18.458425326931398</v>
       </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -5283,6 +5705,24 @@
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
+      <c r="Q27" s="1">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1">
+        <v>52</v>
+      </c>
+      <c r="S27" s="1">
+        <v>71</v>
+      </c>
+      <c r="T27" s="1">
+        <v>105</v>
+      </c>
+      <c r="U27" s="1">
+        <v>126</v>
+      </c>
+      <c r="V27" s="1">
+        <v>151</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -5404,7 +5844,7 @@
         <v>16.551369328876909</v>
       </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -5439,8 +5879,23 @@
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q28" s="1">
+        <v>9</v>
+      </c>
+      <c r="R28" s="1">
+        <v>52</v>
+      </c>
+      <c r="S28" s="1">
+        <v>71</v>
+      </c>
+      <c r="T28" s="1">
+        <v>105</v>
+      </c>
       <c r="U28" s="1">
         <v>126</v>
+      </c>
+      <c r="V28" s="1">
+        <v>151</v>
       </c>
       <c r="AC28" s="1">
         <v>138.62983016043756</v>
@@ -5568,7 +6023,7 @@
       <c r="DG28" s="1"/>
       <c r="DI28" s="1"/>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -5594,6 +6049,24 @@
       <c r="K29" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>9</v>
+      </c>
+      <c r="R29" s="1">
+        <v>52</v>
+      </c>
+      <c r="S29" s="1">
+        <v>71</v>
+      </c>
+      <c r="T29" s="1">
+        <v>105</v>
+      </c>
+      <c r="U29" s="1">
+        <v>126</v>
+      </c>
+      <c r="V29" s="1">
+        <v>151</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AE29" s="4"/>
@@ -5715,7 +6188,7 @@
         <v>15.983232130895567</v>
       </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -5741,6 +6214,24 @@
       <c r="K30" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>9</v>
+      </c>
+      <c r="R30" s="1">
+        <v>52</v>
+      </c>
+      <c r="S30" s="1">
+        <v>71</v>
+      </c>
+      <c r="T30" s="1">
+        <v>105</v>
+      </c>
+      <c r="U30" s="1">
+        <v>126</v>
+      </c>
+      <c r="V30" s="1">
+        <v>151</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AE30" s="4"/>
@@ -5863,7 +6354,7 @@
         <v>15.60075707141022</v>
       </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -5889,6 +6380,24 @@
       <c r="K31" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>9</v>
+      </c>
+      <c r="R31" s="1">
+        <v>52</v>
+      </c>
+      <c r="S31" s="1">
+        <v>71</v>
+      </c>
+      <c r="T31" s="1">
+        <v>105</v>
+      </c>
+      <c r="U31" s="1">
+        <v>126</v>
+      </c>
+      <c r="V31" s="1">
+        <v>151</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AE31" s="4"/>
@@ -6011,7 +6520,7 @@
         <v>13.259282572280318</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -6037,6 +6546,24 @@
       <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>9</v>
+      </c>
+      <c r="R32" s="1">
+        <v>52</v>
+      </c>
+      <c r="S32" s="1">
+        <v>71</v>
+      </c>
+      <c r="T32" s="1">
+        <v>105</v>
+      </c>
+      <c r="U32" s="1">
+        <v>126</v>
+      </c>
+      <c r="V32" s="1">
+        <v>151</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AE32" s="4"/>
@@ -6159,7 +6686,7 @@
         <v>12.817559356468569</v>
       </c>
     </row>
-    <row r="33" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -6199,11 +6726,21 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="Q33" s="1">
+        <v>9</v>
+      </c>
+      <c r="R33" s="1">
+        <v>52</v>
+      </c>
+      <c r="S33" s="1">
+        <v>71</v>
+      </c>
+      <c r="T33" s="1">
+        <v>105</v>
+      </c>
+      <c r="U33" s="1">
+        <v>126</v>
+      </c>
       <c r="V33" s="1">
         <v>151</v>
       </c>
@@ -6339,7 +6876,7 @@
       <c r="EW33" s="4"/>
       <c r="EX33" s="4"/>
     </row>
-    <row r="34" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -6365,6 +6902,24 @@
       <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>9</v>
+      </c>
+      <c r="R34" s="1">
+        <v>52</v>
+      </c>
+      <c r="S34" s="1">
+        <v>71</v>
+      </c>
+      <c r="T34" s="1">
+        <v>105</v>
+      </c>
+      <c r="U34" s="1">
+        <v>126</v>
+      </c>
+      <c r="V34" s="1">
+        <v>151</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AE34" s="4"/>
@@ -6487,7 +7042,7 @@
         <v>8.7222077431954474</v>
       </c>
     </row>
-    <row r="35" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6520,12 +7075,24 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="Q35" s="1">
+        <v>9</v>
+      </c>
+      <c r="R35" s="1">
+        <v>52</v>
+      </c>
+      <c r="S35" s="1">
+        <v>71</v>
+      </c>
+      <c r="T35" s="1">
+        <v>105</v>
+      </c>
+      <c r="U35" s="1">
+        <v>126</v>
+      </c>
+      <c r="V35" s="1">
+        <v>151</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -6664,7 +7231,7 @@
       <c r="EW35" s="4"/>
       <c r="EX35" s="4"/>
     </row>
-    <row r="36" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6698,6 +7265,24 @@
       <c r="K36" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>9</v>
+      </c>
+      <c r="R36" s="1">
+        <v>52</v>
+      </c>
+      <c r="S36" s="1">
+        <v>71</v>
+      </c>
+      <c r="T36" s="1">
+        <v>105</v>
+      </c>
+      <c r="U36" s="1">
+        <v>126</v>
+      </c>
+      <c r="V36" s="1">
+        <v>151</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AE36" s="4"/>
@@ -6833,7 +7418,7 @@
         <v>8.6605462459301279</v>
       </c>
     </row>
-    <row r="37" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -6858,6 +7443,24 @@
       <c r="K37" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>9</v>
+      </c>
+      <c r="R37" s="1">
+        <v>52</v>
+      </c>
+      <c r="S37" s="1">
+        <v>71</v>
+      </c>
+      <c r="T37" s="1">
+        <v>105</v>
+      </c>
+      <c r="U37" s="1">
+        <v>126</v>
+      </c>
+      <c r="V37" s="1">
+        <v>151</v>
       </c>
       <c r="AC37" s="1">
         <v>191.45892882311543</v>
@@ -6983,7 +7586,7 @@
       <c r="DG37" s="1"/>
       <c r="DI37" s="1"/>
     </row>
-    <row r="38" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -7009,6 +7612,24 @@
       <c r="K38" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>9</v>
+      </c>
+      <c r="R38" s="1">
+        <v>52</v>
+      </c>
+      <c r="S38" s="1">
+        <v>71</v>
+      </c>
+      <c r="T38" s="1">
+        <v>105</v>
+      </c>
+      <c r="U38" s="1">
+        <v>126</v>
+      </c>
+      <c r="V38" s="1">
+        <v>151</v>
       </c>
       <c r="AC38" s="1"/>
       <c r="AE38" s="4"/>
@@ -7131,7 +7752,7 @@
         <v>6.6291275166864736</v>
       </c>
     </row>
-    <row r="39" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7157,6 +7778,24 @@
       <c r="K39" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>9</v>
+      </c>
+      <c r="R39" s="1">
+        <v>52</v>
+      </c>
+      <c r="S39" s="1">
+        <v>71</v>
+      </c>
+      <c r="T39" s="1">
+        <v>105</v>
+      </c>
+      <c r="U39" s="1">
+        <v>126</v>
+      </c>
+      <c r="V39" s="1">
+        <v>151</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AE39" s="4"/>
@@ -7279,7 +7918,7 @@
         <v>5.5178250121684371</v>
       </c>
     </row>
-    <row r="40" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7319,12 +7958,24 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="Q40" s="1">
+        <v>9</v>
+      </c>
+      <c r="R40" s="1">
+        <v>52</v>
+      </c>
+      <c r="S40" s="1">
+        <v>71</v>
+      </c>
+      <c r="T40" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U40" s="1">
+        <v>126</v>
+      </c>
+      <c r="V40" s="1">
+        <v>158</v>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -7462,7 +8113,7 @@
       <c r="EW40" s="4"/>
       <c r="EX40" s="4"/>
     </row>
-    <row r="41" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -7505,11 +8156,21 @@
       <c r="Q41" s="1">
         <v>9</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="R41" s="1">
+        <v>52</v>
+      </c>
+      <c r="S41" s="1">
+        <v>71</v>
+      </c>
+      <c r="T41" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U41" s="1">
+        <v>126</v>
+      </c>
+      <c r="V41" s="1">
+        <v>158</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -7647,7 +8308,7 @@
       <c r="EW41" s="4"/>
       <c r="EX41" s="4"/>
     </row>
-    <row r="42" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7673,6 +8334,24 @@
       <c r="K42" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>9</v>
+      </c>
+      <c r="R42" s="1">
+        <v>52</v>
+      </c>
+      <c r="S42" s="1">
+        <v>71</v>
+      </c>
+      <c r="T42" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U42" s="1">
+        <v>126</v>
+      </c>
+      <c r="V42" s="1">
+        <v>158</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AE42" s="4"/>
@@ -7797,7 +8476,7 @@
         <v>17.335688102108683</v>
       </c>
     </row>
-    <row r="43" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -7823,6 +8502,24 @@
       <c r="K43" s="1">
         <f t="shared" si="0"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>9</v>
+      </c>
+      <c r="R43" s="1">
+        <v>52</v>
+      </c>
+      <c r="S43" s="1">
+        <v>71</v>
+      </c>
+      <c r="T43" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U43" s="1">
+        <v>126</v>
+      </c>
+      <c r="V43" s="1">
+        <v>158</v>
       </c>
       <c r="AC43" s="1"/>
       <c r="AE43" s="4"/>
@@ -7947,7 +8644,7 @@
         <v>19.103621957593667</v>
       </c>
     </row>
-    <row r="44" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -7987,14 +8684,24 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="1">
+        <v>9</v>
+      </c>
       <c r="R44" s="1">
         <v>52</v>
       </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="S44" s="1">
+        <v>71</v>
+      </c>
+      <c r="T44" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U44" s="1">
+        <v>126</v>
+      </c>
+      <c r="V44" s="1">
+        <v>158</v>
+      </c>
       <c r="W44" s="1"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -8132,7 +8839,7 @@
       <c r="EW44" s="4"/>
       <c r="EX44" s="4"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -8158,6 +8865,24 @@
       <c r="K45" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>9</v>
+      </c>
+      <c r="R45" s="1">
+        <v>52</v>
+      </c>
+      <c r="S45" s="1">
+        <v>71</v>
+      </c>
+      <c r="T45" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U45" s="1">
+        <v>126</v>
+      </c>
+      <c r="V45" s="1">
+        <v>158</v>
       </c>
       <c r="AC45" s="1"/>
       <c r="AE45" s="4"/>
@@ -8282,7 +9007,7 @@
         <v>20.866013834995151</v>
       </c>
     </row>
-    <row r="46" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -8317,6 +9042,24 @@
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
+      <c r="Q46" s="1">
+        <v>9</v>
+      </c>
+      <c r="R46" s="1">
+        <v>52</v>
+      </c>
+      <c r="S46" s="1">
+        <v>71</v>
+      </c>
+      <c r="T46" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>126</v>
+      </c>
+      <c r="V46" s="1">
+        <v>158</v>
+      </c>
       <c r="AC46" s="1"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
@@ -8440,7 +9183,7 @@
         <v>19.02440156097817</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -8466,6 +9209,24 @@
       <c r="K47" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>9</v>
+      </c>
+      <c r="R47" s="1">
+        <v>52</v>
+      </c>
+      <c r="S47" s="1">
+        <v>71</v>
+      </c>
+      <c r="T47" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U47" s="1">
+        <v>126</v>
+      </c>
+      <c r="V47" s="1">
+        <v>158</v>
       </c>
       <c r="AC47" s="1"/>
       <c r="AE47" s="4"/>
@@ -8590,7 +9351,7 @@
         <v>16.715838865809893</v>
       </c>
     </row>
-    <row r="48" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -8616,6 +9377,24 @@
       <c r="K48" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>9</v>
+      </c>
+      <c r="R48" s="1">
+        <v>52</v>
+      </c>
+      <c r="S48" s="1">
+        <v>71</v>
+      </c>
+      <c r="T48" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U48" s="1">
+        <v>126</v>
+      </c>
+      <c r="V48" s="1">
+        <v>158</v>
       </c>
       <c r="AC48" s="1"/>
       <c r="AE48" s="4"/>
@@ -8740,7 +9519,7 @@
         <v>19.399352474859036</v>
       </c>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -8774,6 +9553,24 @@
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
+      <c r="Q49" s="1">
+        <v>9</v>
+      </c>
+      <c r="R49" s="1">
+        <v>52</v>
+      </c>
+      <c r="S49" s="1">
+        <v>71</v>
+      </c>
+      <c r="T49" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U49" s="1">
+        <v>126</v>
+      </c>
+      <c r="V49" s="1">
+        <v>158</v>
+      </c>
       <c r="AC49" s="1"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
@@ -8855,7 +9652,7 @@
       <c r="DH49" s="1"/>
       <c r="DI49" s="1"/>
     </row>
-    <row r="50" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -8881,6 +9678,24 @@
       <c r="K50" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>9</v>
+      </c>
+      <c r="R50" s="1">
+        <v>52</v>
+      </c>
+      <c r="S50" s="1">
+        <v>71</v>
+      </c>
+      <c r="T50" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U50" s="1">
+        <v>126</v>
+      </c>
+      <c r="V50" s="1">
+        <v>158</v>
       </c>
       <c r="AC50" s="1"/>
       <c r="AE50" s="4"/>
@@ -9005,7 +9820,7 @@
         <v>19.700794459659328</v>
       </c>
     </row>
-    <row r="51" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -9040,6 +9855,24 @@
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
+      <c r="Q51" s="1">
+        <v>9</v>
+      </c>
+      <c r="R51" s="1">
+        <v>52</v>
+      </c>
+      <c r="S51" s="1">
+        <v>71</v>
+      </c>
+      <c r="T51" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U51" s="1">
+        <v>126</v>
+      </c>
+      <c r="V51" s="1">
+        <v>158</v>
+      </c>
       <c r="AC51" s="1"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
@@ -9163,7 +9996,7 @@
         <v>20.174489007202617</v>
       </c>
     </row>
-    <row r="52" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -9198,8 +10031,23 @@
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q52" s="1">
+        <v>9</v>
+      </c>
+      <c r="R52" s="1">
+        <v>52</v>
+      </c>
       <c r="S52" s="1">
         <v>71</v>
+      </c>
+      <c r="T52" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>126</v>
+      </c>
+      <c r="V52" s="1">
+        <v>158</v>
       </c>
       <c r="AC52" s="1">
         <v>36.325000000000003</v>
@@ -9325,7 +10173,7 @@
       <c r="DH52" s="1"/>
       <c r="DI52" s="1"/>
     </row>
-    <row r="53" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -9351,6 +10199,24 @@
       <c r="K53" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>9</v>
+      </c>
+      <c r="R53" s="1">
+        <v>52</v>
+      </c>
+      <c r="S53" s="1">
+        <v>71</v>
+      </c>
+      <c r="T53" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>126</v>
+      </c>
+      <c r="V53" s="1">
+        <v>158</v>
       </c>
       <c r="AC53" s="1"/>
       <c r="AE53" s="4"/>
@@ -9475,7 +10341,7 @@
         <v>17.339121165208986</v>
       </c>
     </row>
-    <row r="54" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9501,6 +10367,24 @@
       <c r="K54" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>9</v>
+      </c>
+      <c r="R54" s="1">
+        <v>52</v>
+      </c>
+      <c r="S54" s="1">
+        <v>71</v>
+      </c>
+      <c r="T54" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U54" s="1">
+        <v>126</v>
+      </c>
+      <c r="V54" s="1">
+        <v>158</v>
       </c>
       <c r="AC54" s="1"/>
       <c r="AE54" s="4"/>
@@ -9625,7 +10509,7 @@
         <v>18.034930859447222</v>
       </c>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9659,6 +10543,24 @@
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
+      <c r="Q55" s="1">
+        <v>9</v>
+      </c>
+      <c r="R55" s="1">
+        <v>52</v>
+      </c>
+      <c r="S55" s="1">
+        <v>71</v>
+      </c>
+      <c r="T55" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U55" s="1">
+        <v>126</v>
+      </c>
+      <c r="V55" s="1">
+        <v>158</v>
+      </c>
       <c r="AC55" s="1"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
@@ -9740,7 +10642,7 @@
       <c r="DH55" s="1"/>
       <c r="DI55" s="1"/>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -9766,6 +10668,24 @@
       <c r="K56" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>9</v>
+      </c>
+      <c r="R56" s="1">
+        <v>52</v>
+      </c>
+      <c r="S56" s="1">
+        <v>71</v>
+      </c>
+      <c r="T56" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U56" s="1">
+        <v>126</v>
+      </c>
+      <c r="V56" s="1">
+        <v>158</v>
       </c>
       <c r="AC56" s="1"/>
       <c r="AE56" s="4"/>
@@ -9890,7 +10810,7 @@
         <v>17.586167603879893</v>
       </c>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -9924,6 +10844,24 @@
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
+      <c r="Q57" s="1">
+        <v>9</v>
+      </c>
+      <c r="R57" s="1">
+        <v>52</v>
+      </c>
+      <c r="S57" s="1">
+        <v>71</v>
+      </c>
+      <c r="T57" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U57" s="1">
+        <v>126</v>
+      </c>
+      <c r="V57" s="1">
+        <v>158</v>
+      </c>
       <c r="AC57" s="1"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
@@ -10005,7 +10943,7 @@
       <c r="DH57" s="1"/>
       <c r="DI57" s="1"/>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -10030,6 +10968,24 @@
       <c r="K58" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>9</v>
+      </c>
+      <c r="R58" s="1">
+        <v>52</v>
+      </c>
+      <c r="S58" s="1">
+        <v>71</v>
+      </c>
+      <c r="T58" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U58" s="1">
+        <v>126</v>
+      </c>
+      <c r="V58" s="1">
+        <v>158</v>
       </c>
       <c r="AC58" s="1">
         <v>87.724999999999994</v>
@@ -10202,7 +11158,7 @@
         <v>18.771537213282535</v>
       </c>
     </row>
-    <row r="59" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -10236,6 +11192,24 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
+      <c r="Q59" s="1">
+        <v>9</v>
+      </c>
+      <c r="R59" s="1">
+        <v>52</v>
+      </c>
+      <c r="S59" s="1">
+        <v>71</v>
+      </c>
+      <c r="T59" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U59" s="1">
+        <v>126</v>
+      </c>
+      <c r="V59" s="1">
+        <v>158</v>
+      </c>
       <c r="AC59" s="1"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
@@ -10317,7 +11291,7 @@
       <c r="DH59" s="1"/>
       <c r="DI59" s="1"/>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -10343,6 +11317,24 @@
       <c r="K60" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>9</v>
+      </c>
+      <c r="R60" s="1">
+        <v>52</v>
+      </c>
+      <c r="S60" s="1">
+        <v>71</v>
+      </c>
+      <c r="T60" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U60" s="1">
+        <v>126</v>
+      </c>
+      <c r="V60" s="1">
+        <v>158</v>
       </c>
       <c r="AC60" s="1"/>
       <c r="AE60" s="4"/>
@@ -10467,7 +11459,7 @@
         <v>18.590218726184595</v>
       </c>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -10502,6 +11494,24 @@
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
+      <c r="Q61" s="1">
+        <v>9</v>
+      </c>
+      <c r="R61" s="1">
+        <v>52</v>
+      </c>
+      <c r="S61" s="1">
+        <v>71</v>
+      </c>
+      <c r="T61" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U61" s="1">
+        <v>126</v>
+      </c>
+      <c r="V61" s="1">
+        <v>158</v>
+      </c>
       <c r="AC61" s="1"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
@@ -10625,7 +11635,7 @@
         <v>19.279319717237705</v>
       </c>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -10651,6 +11661,24 @@
       <c r="K62" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>9</v>
+      </c>
+      <c r="R62" s="1">
+        <v>52</v>
+      </c>
+      <c r="S62" s="1">
+        <v>71</v>
+      </c>
+      <c r="T62" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U62" s="1">
+        <v>126</v>
+      </c>
+      <c r="V62" s="1">
+        <v>158</v>
       </c>
       <c r="AC62" s="1"/>
       <c r="AE62" s="4"/>
@@ -10775,7 +11803,7 @@
         <v>20.968545862412562</v>
       </c>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -10800,6 +11828,24 @@
       <c r="K63" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>9</v>
+      </c>
+      <c r="R63" s="1">
+        <v>52</v>
+      </c>
+      <c r="S63" s="1">
+        <v>71</v>
+      </c>
+      <c r="T63" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U63" s="1">
+        <v>126</v>
+      </c>
+      <c r="V63" s="1">
+        <v>158</v>
       </c>
       <c r="AC63" s="1">
         <v>143.44999999999999</v>
@@ -10931,7 +11977,7 @@
       <c r="DH63" s="1"/>
       <c r="DI63" s="1"/>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -10957,6 +12003,24 @@
       <c r="K64" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>9</v>
+      </c>
+      <c r="R64" s="1">
+        <v>52</v>
+      </c>
+      <c r="S64" s="1">
+        <v>71</v>
+      </c>
+      <c r="T64" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U64" s="1">
+        <v>126</v>
+      </c>
+      <c r="V64" s="1">
+        <v>158</v>
       </c>
       <c r="AC64" s="1"/>
       <c r="AE64" s="4"/>
@@ -11081,7 +12145,7 @@
         <v>19.549461512314018</v>
       </c>
     </row>
-    <row r="65" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -11116,8 +12180,23 @@
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q65" s="1">
+        <v>9</v>
+      </c>
+      <c r="R65" s="1">
+        <v>52</v>
+      </c>
+      <c r="S65" s="1">
+        <v>71</v>
+      </c>
       <c r="T65" s="1">
         <v>109.5</v>
+      </c>
+      <c r="U65" s="1">
+        <v>126</v>
+      </c>
+      <c r="V65" s="1">
+        <v>158</v>
       </c>
       <c r="AC65" s="1"/>
       <c r="AE65" s="4"/>
@@ -11242,7 +12321,7 @@
         <v>19.909789090228109</v>
       </c>
     </row>
-    <row r="66" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -11276,6 +12355,24 @@
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
+      <c r="Q66" s="1">
+        <v>9</v>
+      </c>
+      <c r="R66" s="1">
+        <v>52</v>
+      </c>
+      <c r="S66" s="1">
+        <v>71</v>
+      </c>
+      <c r="T66" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U66" s="1">
+        <v>126</v>
+      </c>
+      <c r="V66" s="1">
+        <v>158</v>
+      </c>
       <c r="AC66" s="1"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
@@ -11357,7 +12454,7 @@
       <c r="DH66" s="1"/>
       <c r="DI66" s="1"/>
     </row>
-    <row r="67" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -11383,6 +12480,24 @@
       <c r="K67" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>9</v>
+      </c>
+      <c r="R67" s="1">
+        <v>52</v>
+      </c>
+      <c r="S67" s="1">
+        <v>71</v>
+      </c>
+      <c r="T67" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U67" s="1">
+        <v>126</v>
+      </c>
+      <c r="V67" s="1">
+        <v>158</v>
       </c>
       <c r="AC67" s="1"/>
       <c r="AE67" s="4"/>
@@ -11507,7 +12622,7 @@
         <v>20.281290556680283</v>
       </c>
     </row>
-    <row r="68" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -11533,6 +12648,24 @@
       <c r="K68" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>9</v>
+      </c>
+      <c r="R68" s="1">
+        <v>52</v>
+      </c>
+      <c r="S68" s="1">
+        <v>71</v>
+      </c>
+      <c r="T68" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U68" s="1">
+        <v>126</v>
+      </c>
+      <c r="V68" s="1">
+        <v>158</v>
       </c>
       <c r="AC68" s="1"/>
       <c r="AE68" s="4"/>
@@ -11657,7 +12790,7 @@
         <v>20.45930989232729</v>
       </c>
     </row>
-    <row r="69" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -11683,6 +12816,24 @@
       <c r="K69" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>9</v>
+      </c>
+      <c r="R69" s="1">
+        <v>52</v>
+      </c>
+      <c r="S69" s="1">
+        <v>71</v>
+      </c>
+      <c r="T69" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U69" s="1">
+        <v>126</v>
+      </c>
+      <c r="V69" s="1">
+        <v>158</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AE69" s="4"/>
@@ -11807,7 +12958,7 @@
         <v>21.54360948217721</v>
       </c>
     </row>
-    <row r="70" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -11833,6 +12984,24 @@
       <c r="K70" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>9</v>
+      </c>
+      <c r="R70" s="1">
+        <v>52</v>
+      </c>
+      <c r="S70" s="1">
+        <v>71</v>
+      </c>
+      <c r="T70" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U70" s="1">
+        <v>126</v>
+      </c>
+      <c r="V70" s="1">
+        <v>158</v>
       </c>
       <c r="AC70" s="1"/>
       <c r="AE70" s="4"/>
@@ -11957,7 +13126,7 @@
         <v>19.377982796022515</v>
       </c>
     </row>
-    <row r="71" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -11991,6 +13160,24 @@
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
+      <c r="Q71" s="1">
+        <v>9</v>
+      </c>
+      <c r="R71" s="1">
+        <v>52</v>
+      </c>
+      <c r="S71" s="1">
+        <v>71</v>
+      </c>
+      <c r="T71" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U71" s="1">
+        <v>126</v>
+      </c>
+      <c r="V71" s="1">
+        <v>158</v>
+      </c>
       <c r="AC71" s="1"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
@@ -12072,7 +13259,7 @@
       <c r="DH71" s="1"/>
       <c r="DI71" s="1"/>
     </row>
-    <row r="72" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -12098,6 +13285,24 @@
       <c r="K72" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>9</v>
+      </c>
+      <c r="R72" s="1">
+        <v>52</v>
+      </c>
+      <c r="S72" s="1">
+        <v>71</v>
+      </c>
+      <c r="T72" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U72" s="1">
+        <v>126</v>
+      </c>
+      <c r="V72" s="1">
+        <v>158</v>
       </c>
       <c r="AC72" s="1"/>
       <c r="AE72" s="4"/>
@@ -12222,7 +13427,7 @@
         <v>19.575908585685092</v>
       </c>
     </row>
-    <row r="73" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -12257,8 +13462,23 @@
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q73" s="1">
+        <v>9</v>
+      </c>
+      <c r="R73" s="1">
+        <v>52</v>
+      </c>
+      <c r="S73" s="1">
+        <v>71</v>
+      </c>
+      <c r="T73" s="1">
+        <v>109.5</v>
+      </c>
       <c r="U73" s="1">
         <v>126</v>
+      </c>
+      <c r="V73" s="1">
+        <v>158</v>
       </c>
       <c r="AC73" s="1">
         <v>185.6644727804738</v>
@@ -12431,7 +13651,7 @@
         <v>20.270950312174698</v>
       </c>
     </row>
-    <row r="74" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -12457,6 +13677,24 @@
       <c r="K74" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>9</v>
+      </c>
+      <c r="R74" s="1">
+        <v>52</v>
+      </c>
+      <c r="S74" s="1">
+        <v>71</v>
+      </c>
+      <c r="T74" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U74" s="1">
+        <v>126</v>
+      </c>
+      <c r="V74" s="1">
+        <v>158</v>
       </c>
       <c r="AC74" s="1"/>
       <c r="AE74" s="4"/>
@@ -12581,7 +13819,7 @@
         <v>19.624239301765492</v>
       </c>
     </row>
-    <row r="75" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -12607,6 +13845,24 @@
       <c r="K75" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>9</v>
+      </c>
+      <c r="R75" s="1">
+        <v>52</v>
+      </c>
+      <c r="S75" s="1">
+        <v>71</v>
+      </c>
+      <c r="T75" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U75" s="1">
+        <v>126</v>
+      </c>
+      <c r="V75" s="1">
+        <v>158</v>
       </c>
       <c r="AC75" s="1"/>
       <c r="AE75" s="4"/>
@@ -12731,7 +13987,7 @@
         <v>18.787899010528712</v>
       </c>
     </row>
-    <row r="76" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -12757,6 +14013,24 @@
       <c r="K76" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>9</v>
+      </c>
+      <c r="R76" s="1">
+        <v>52</v>
+      </c>
+      <c r="S76" s="1">
+        <v>71</v>
+      </c>
+      <c r="T76" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U76" s="1">
+        <v>126</v>
+      </c>
+      <c r="V76" s="1">
+        <v>158</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AE76" s="4"/>
@@ -12881,7 +14155,7 @@
         <v>18.289933860436982</v>
       </c>
     </row>
-    <row r="77" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -12907,6 +14181,24 @@
       <c r="K77" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>9</v>
+      </c>
+      <c r="R77" s="1">
+        <v>52</v>
+      </c>
+      <c r="S77" s="1">
+        <v>71</v>
+      </c>
+      <c r="T77" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U77" s="1">
+        <v>126</v>
+      </c>
+      <c r="V77" s="1">
+        <v>158</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AE77" s="4"/>
@@ -13031,7 +14323,7 @@
         <v>17.94836504024439</v>
       </c>
     </row>
-    <row r="78" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -13057,6 +14349,24 @@
       <c r="K78" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>9</v>
+      </c>
+      <c r="R78" s="1">
+        <v>52</v>
+      </c>
+      <c r="S78" s="1">
+        <v>71</v>
+      </c>
+      <c r="T78" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U78" s="1">
+        <v>126</v>
+      </c>
+      <c r="V78" s="1">
+        <v>158</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AE78" s="4"/>
@@ -13181,7 +14491,7 @@
         <v>17.834656495800054</v>
       </c>
     </row>
-    <row r="79" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -13207,6 +14517,24 @@
       <c r="K79" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>9</v>
+      </c>
+      <c r="R79" s="1">
+        <v>52</v>
+      </c>
+      <c r="S79" s="1">
+        <v>71</v>
+      </c>
+      <c r="T79" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U79" s="1">
+        <v>126</v>
+      </c>
+      <c r="V79" s="1">
+        <v>158</v>
       </c>
       <c r="AC79" s="1"/>
       <c r="AE79" s="4"/>
@@ -13331,7 +14659,7 @@
         <v>17.695588358714623</v>
       </c>
     </row>
-    <row r="80" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -13357,6 +14685,24 @@
       <c r="K80" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>9</v>
+      </c>
+      <c r="R80" s="1">
+        <v>52</v>
+      </c>
+      <c r="S80" s="1">
+        <v>71</v>
+      </c>
+      <c r="T80" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U80" s="1">
+        <v>126</v>
+      </c>
+      <c r="V80" s="1">
+        <v>158</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AE80" s="4"/>
@@ -13481,7 +14827,7 @@
         <v>16.022146111640104</v>
       </c>
     </row>
-    <row r="81" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -13521,11 +14867,21 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
+      <c r="Q81" s="1">
+        <v>9</v>
+      </c>
+      <c r="R81" s="1">
+        <v>52</v>
+      </c>
+      <c r="S81" s="1">
+        <v>71</v>
+      </c>
+      <c r="T81" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U81" s="1">
+        <v>126</v>
+      </c>
       <c r="V81" s="1">
         <v>158</v>
       </c>
@@ -13666,7 +15022,7 @@
       <c r="EW81" s="4"/>
       <c r="EX81" s="4"/>
     </row>
-    <row r="82" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -13699,12 +15055,24 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
+      <c r="Q82" s="1">
+        <v>9</v>
+      </c>
+      <c r="R82" s="1">
+        <v>52</v>
+      </c>
+      <c r="S82" s="1">
+        <v>71</v>
+      </c>
+      <c r="T82" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U82" s="1">
+        <v>126</v>
+      </c>
+      <c r="V82" s="1">
+        <v>158</v>
+      </c>
       <c r="W82" s="1"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
@@ -13848,7 +15216,7 @@
       <c r="EW82" s="4"/>
       <c r="EX82" s="4"/>
     </row>
-    <row r="83" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -13874,6 +15242,24 @@
       <c r="K83" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>9</v>
+      </c>
+      <c r="R83" s="1">
+        <v>52</v>
+      </c>
+      <c r="S83" s="1">
+        <v>71</v>
+      </c>
+      <c r="T83" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U83" s="1">
+        <v>126</v>
+      </c>
+      <c r="V83" s="1">
+        <v>158</v>
       </c>
       <c r="AC83" s="1"/>
       <c r="AE83" s="4"/>
@@ -13998,7 +15384,7 @@
         <v>14.554047849610692</v>
       </c>
     </row>
-    <row r="84" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -14023,6 +15409,24 @@
       <c r="K84" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>9</v>
+      </c>
+      <c r="R84" s="1">
+        <v>52</v>
+      </c>
+      <c r="S84" s="1">
+        <v>71</v>
+      </c>
+      <c r="T84" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U84" s="1">
+        <v>126</v>
+      </c>
+      <c r="V84" s="1">
+        <v>158</v>
       </c>
       <c r="AC84" s="1">
         <v>336.98422230662277</v>
@@ -14152,7 +15556,7 @@
       <c r="DH84" s="1"/>
       <c r="DI84" s="1"/>
     </row>
-    <row r="85" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -14186,6 +15590,24 @@
       <c r="K85" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>9</v>
+      </c>
+      <c r="R85" s="1">
+        <v>52</v>
+      </c>
+      <c r="S85" s="1">
+        <v>71</v>
+      </c>
+      <c r="T85" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U85" s="1">
+        <v>126</v>
+      </c>
+      <c r="V85" s="1">
+        <v>158</v>
       </c>
       <c r="AC85" s="1"/>
       <c r="AE85" s="4"/>
@@ -14323,7 +15745,7 @@
         <v>10.87841745751485</v>
       </c>
     </row>
-    <row r="86" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -14349,6 +15771,24 @@
       <c r="K86" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>9</v>
+      </c>
+      <c r="R86" s="1">
+        <v>52</v>
+      </c>
+      <c r="S86" s="1">
+        <v>71</v>
+      </c>
+      <c r="T86" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="U86" s="1">
+        <v>126</v>
+      </c>
+      <c r="V86" s="1">
+        <v>158</v>
       </c>
       <c r="AC86" s="1"/>
       <c r="AE86" s="4"/>
@@ -14473,7 +15913,7 @@
         <v>9.2380863416767269</v>
       </c>
     </row>
-    <row r="87" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -14513,12 +15953,24 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
+      <c r="Q87" s="1">
+        <v>9</v>
+      </c>
+      <c r="R87" s="1">
+        <v>52</v>
+      </c>
+      <c r="S87" s="1">
+        <v>71</v>
+      </c>
+      <c r="T87" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U87" s="1">
+        <v>126</v>
+      </c>
+      <c r="V87" s="1">
+        <v>159</v>
+      </c>
       <c r="W87" s="1"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
@@ -14656,7 +16108,7 @@
       <c r="EW87" s="4"/>
       <c r="EX87" s="4"/>
     </row>
-    <row r="88" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -14699,11 +16151,21 @@
       <c r="Q88" s="1">
         <v>9</v>
       </c>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="R88" s="1">
+        <v>52</v>
+      </c>
+      <c r="S88" s="1">
+        <v>71</v>
+      </c>
+      <c r="T88" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U88" s="1">
+        <v>126</v>
+      </c>
+      <c r="V88" s="1">
+        <v>159</v>
+      </c>
       <c r="W88" s="1"/>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
@@ -14841,7 +16303,7 @@
       <c r="EW88" s="4"/>
       <c r="EX88" s="4"/>
     </row>
-    <row r="89" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -14867,6 +16329,24 @@
       <c r="K89" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>9</v>
+      </c>
+      <c r="R89" s="1">
+        <v>52</v>
+      </c>
+      <c r="S89" s="1">
+        <v>71</v>
+      </c>
+      <c r="T89" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U89" s="1">
+        <v>126</v>
+      </c>
+      <c r="V89" s="1">
+        <v>159</v>
       </c>
       <c r="AC89" s="1"/>
       <c r="AE89" s="4"/>
@@ -14991,7 +16471,7 @@
         <v>16.877313635420244</v>
       </c>
     </row>
-    <row r="90" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -15017,6 +16497,24 @@
       <c r="K90" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>9</v>
+      </c>
+      <c r="R90" s="1">
+        <v>52</v>
+      </c>
+      <c r="S90" s="1">
+        <v>71</v>
+      </c>
+      <c r="T90" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U90" s="1">
+        <v>126</v>
+      </c>
+      <c r="V90" s="1">
+        <v>159</v>
       </c>
       <c r="AC90" s="1"/>
       <c r="AE90" s="4"/>
@@ -15141,7 +16639,7 @@
         <v>18.562757870380729</v>
       </c>
     </row>
-    <row r="91" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -15181,14 +16679,24 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
-      <c r="Q91" s="1"/>
+      <c r="Q91" s="1">
+        <v>9</v>
+      </c>
       <c r="R91" s="1">
         <v>52</v>
       </c>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="S91" s="1">
+        <v>71</v>
+      </c>
+      <c r="T91" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U91" s="1">
+        <v>126</v>
+      </c>
+      <c r="V91" s="1">
+        <v>159</v>
+      </c>
       <c r="W91" s="1"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
@@ -15321,7 +16829,7 @@
       <c r="EW91" s="4"/>
       <c r="EX91" s="4"/>
     </row>
-    <row r="92" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -15347,6 +16855,24 @@
       <c r="K92" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>9</v>
+      </c>
+      <c r="R92" s="1">
+        <v>52</v>
+      </c>
+      <c r="S92" s="1">
+        <v>71</v>
+      </c>
+      <c r="T92" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U92" s="1">
+        <v>126</v>
+      </c>
+      <c r="V92" s="1">
+        <v>159</v>
       </c>
       <c r="AC92" s="1"/>
       <c r="AE92" s="4"/>
@@ -15471,7 +16997,7 @@
         <v>19.089871175715366</v>
       </c>
     </row>
-    <row r="93" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -15505,6 +17031,24 @@
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
+      <c r="Q93" s="1">
+        <v>9</v>
+      </c>
+      <c r="R93" s="1">
+        <v>52</v>
+      </c>
+      <c r="S93" s="1">
+        <v>71</v>
+      </c>
+      <c r="T93" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U93" s="1">
+        <v>126</v>
+      </c>
+      <c r="V93" s="1">
+        <v>159</v>
+      </c>
       <c r="AC93" s="1"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
@@ -15580,7 +17124,7 @@
       <c r="DG93" s="1"/>
       <c r="DI93" s="1"/>
     </row>
-    <row r="94" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -15614,6 +17158,24 @@
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
+      <c r="Q94" s="1">
+        <v>9</v>
+      </c>
+      <c r="R94" s="1">
+        <v>52</v>
+      </c>
+      <c r="S94" s="1">
+        <v>71</v>
+      </c>
+      <c r="T94" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U94" s="1">
+        <v>126</v>
+      </c>
+      <c r="V94" s="1">
+        <v>159</v>
+      </c>
       <c r="AC94" s="1"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
@@ -15689,7 +17251,7 @@
       <c r="DG94" s="1"/>
       <c r="DI94" s="1"/>
     </row>
-    <row r="95" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -15715,6 +17277,24 @@
       <c r="K95" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>9</v>
+      </c>
+      <c r="R95" s="1">
+        <v>52</v>
+      </c>
+      <c r="S95" s="1">
+        <v>71</v>
+      </c>
+      <c r="T95" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U95" s="1">
+        <v>126</v>
+      </c>
+      <c r="V95" s="1">
+        <v>159</v>
       </c>
       <c r="AC95" s="1"/>
       <c r="AE95" s="4"/>
@@ -15839,7 +17419,7 @@
         <v>21.601680665483933</v>
       </c>
     </row>
-    <row r="96" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -15874,6 +17454,24 @@
       </c>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
+      <c r="Q96" s="1">
+        <v>9</v>
+      </c>
+      <c r="R96" s="1">
+        <v>52</v>
+      </c>
+      <c r="S96" s="1">
+        <v>71</v>
+      </c>
+      <c r="T96" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U96" s="1">
+        <v>126</v>
+      </c>
+      <c r="V96" s="1">
+        <v>159</v>
+      </c>
       <c r="AC96" s="1"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
@@ -15997,7 +17595,7 @@
         <v>21.468756440660421</v>
       </c>
     </row>
-    <row r="97" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -16037,14 +17635,24 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="Q97" s="1">
+        <v>9</v>
+      </c>
+      <c r="R97" s="1">
+        <v>52</v>
+      </c>
       <c r="S97" s="1">
         <v>71</v>
       </c>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="T97" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U97" s="1">
+        <v>126</v>
+      </c>
+      <c r="V97" s="1">
+        <v>159</v>
+      </c>
       <c r="W97" s="1"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
@@ -16177,7 +17785,7 @@
       <c r="EW97" s="4"/>
       <c r="EX97" s="4"/>
     </row>
-    <row r="98" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -16211,6 +17819,24 @@
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
+      <c r="Q98" s="1">
+        <v>9</v>
+      </c>
+      <c r="R98" s="1">
+        <v>52</v>
+      </c>
+      <c r="S98" s="1">
+        <v>71</v>
+      </c>
+      <c r="T98" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U98" s="1">
+        <v>126</v>
+      </c>
+      <c r="V98" s="1">
+        <v>159</v>
+      </c>
       <c r="AC98" s="1"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
@@ -16286,7 +17912,7 @@
       <c r="DG98" s="1"/>
       <c r="DI98" s="1"/>
     </row>
-    <row r="99" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -16312,6 +17938,24 @@
       <c r="K99" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>9</v>
+      </c>
+      <c r="R99" s="1">
+        <v>52</v>
+      </c>
+      <c r="S99" s="1">
+        <v>71</v>
+      </c>
+      <c r="T99" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U99" s="1">
+        <v>126</v>
+      </c>
+      <c r="V99" s="1">
+        <v>159</v>
       </c>
       <c r="AC99" s="1"/>
       <c r="AE99" s="4"/>
@@ -16436,7 +18080,7 @@
         <v>19.759075893792392</v>
       </c>
     </row>
-    <row r="100" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -16470,6 +18114,24 @@
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
+      <c r="Q100" s="1">
+        <v>9</v>
+      </c>
+      <c r="R100" s="1">
+        <v>52</v>
+      </c>
+      <c r="S100" s="1">
+        <v>71</v>
+      </c>
+      <c r="T100" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U100" s="1">
+        <v>126</v>
+      </c>
+      <c r="V100" s="1">
+        <v>159</v>
+      </c>
       <c r="AC100" s="1"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
@@ -16545,7 +18207,7 @@
       <c r="DG100" s="1"/>
       <c r="DI100" s="1"/>
     </row>
-    <row r="101" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>54</v>
       </c>
@@ -16570,6 +18232,24 @@
       <c r="K101" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>9</v>
+      </c>
+      <c r="R101" s="1">
+        <v>52</v>
+      </c>
+      <c r="S101" s="1">
+        <v>71</v>
+      </c>
+      <c r="T101" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U101" s="1">
+        <v>126</v>
+      </c>
+      <c r="V101" s="1">
+        <v>159</v>
       </c>
       <c r="AC101" s="1">
         <v>81.325000000000003</v>
@@ -16744,7 +18424,7 @@
         <v>21.063108375250714</v>
       </c>
     </row>
-    <row r="102" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -16770,6 +18450,24 @@
       <c r="K102" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>9</v>
+      </c>
+      <c r="R102" s="1">
+        <v>52</v>
+      </c>
+      <c r="S102" s="1">
+        <v>71</v>
+      </c>
+      <c r="T102" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U102" s="1">
+        <v>126</v>
+      </c>
+      <c r="V102" s="1">
+        <v>159</v>
       </c>
       <c r="AC102" s="1"/>
       <c r="AE102" s="4"/>
@@ -16893,7 +18591,7 @@
         <v>19.674279405542912</v>
       </c>
     </row>
-    <row r="103" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -16919,6 +18617,24 @@
       <c r="K103" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>9</v>
+      </c>
+      <c r="R103" s="1">
+        <v>52</v>
+      </c>
+      <c r="S103" s="1">
+        <v>71</v>
+      </c>
+      <c r="T103" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U103" s="1">
+        <v>126</v>
+      </c>
+      <c r="V103" s="1">
+        <v>159</v>
       </c>
       <c r="AC103" s="1"/>
       <c r="AE103" s="4"/>
@@ -17042,7 +18758,7 @@
         <v>20.636208614892588</v>
       </c>
     </row>
-    <row r="104" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -17076,6 +18792,24 @@
       </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
+      <c r="Q104" s="1">
+        <v>9</v>
+      </c>
+      <c r="R104" s="1">
+        <v>52</v>
+      </c>
+      <c r="S104" s="1">
+        <v>71</v>
+      </c>
+      <c r="T104" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U104" s="1">
+        <v>126</v>
+      </c>
+      <c r="V104" s="1">
+        <v>159</v>
+      </c>
       <c r="AC104" s="1"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
@@ -17150,7 +18884,7 @@
       <c r="DG104" s="1"/>
       <c r="DI104" s="1"/>
     </row>
-    <row r="105" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -17176,6 +18910,24 @@
       <c r="K105" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>9</v>
+      </c>
+      <c r="R105" s="1">
+        <v>52</v>
+      </c>
+      <c r="S105" s="1">
+        <v>71</v>
+      </c>
+      <c r="T105" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U105" s="1">
+        <v>126</v>
+      </c>
+      <c r="V105" s="1">
+        <v>159</v>
       </c>
       <c r="AC105" s="1"/>
       <c r="AE105" s="4"/>
@@ -17300,7 +19052,7 @@
         <v>21.11476259046119</v>
       </c>
     </row>
-    <row r="106" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -17334,6 +19086,24 @@
       </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
+      <c r="Q106" s="1">
+        <v>9</v>
+      </c>
+      <c r="R106" s="1">
+        <v>52</v>
+      </c>
+      <c r="S106" s="1">
+        <v>71</v>
+      </c>
+      <c r="T106" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U106" s="1">
+        <v>126</v>
+      </c>
+      <c r="V106" s="1">
+        <v>159</v>
+      </c>
       <c r="AC106" s="1"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
@@ -17409,7 +19179,7 @@
       <c r="DG106" s="1"/>
       <c r="DI106" s="1"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -17435,6 +19205,24 @@
       <c r="K107" s="1">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>9</v>
+      </c>
+      <c r="R107" s="1">
+        <v>52</v>
+      </c>
+      <c r="S107" s="1">
+        <v>71</v>
+      </c>
+      <c r="T107" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U107" s="1">
+        <v>126</v>
+      </c>
+      <c r="V107" s="1">
+        <v>159</v>
       </c>
       <c r="AC107" s="1"/>
       <c r="AE107" s="4"/>
@@ -17559,7 +19347,7 @@
         <v>20.159970686496727</v>
       </c>
     </row>
-    <row r="108" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -17585,6 +19373,24 @@
       <c r="K108" s="1">
         <f t="shared" ref="K108:K171" si="4">1000000/I108/J108</f>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>9</v>
+      </c>
+      <c r="R108" s="1">
+        <v>52</v>
+      </c>
+      <c r="S108" s="1">
+        <v>71</v>
+      </c>
+      <c r="T108" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U108" s="1">
+        <v>126</v>
+      </c>
+      <c r="V108" s="1">
+        <v>159</v>
       </c>
       <c r="AC108" s="1"/>
       <c r="AE108" s="4"/>
@@ -17709,7 +19515,7 @@
         <v>19.645306662537187</v>
       </c>
     </row>
-    <row r="109" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -17734,6 +19540,24 @@
       <c r="K109" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>9</v>
+      </c>
+      <c r="R109" s="1">
+        <v>52</v>
+      </c>
+      <c r="S109" s="1">
+        <v>71</v>
+      </c>
+      <c r="T109" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U109" s="1">
+        <v>126</v>
+      </c>
+      <c r="V109" s="1">
+        <v>159</v>
       </c>
       <c r="AC109" s="1">
         <v>138.17500000000001</v>
@@ -17861,7 +19685,7 @@
       <c r="DG109" s="1"/>
       <c r="DI109" s="1"/>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -17887,6 +19711,24 @@
       <c r="K110" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>9</v>
+      </c>
+      <c r="R110" s="1">
+        <v>52</v>
+      </c>
+      <c r="S110" s="1">
+        <v>71</v>
+      </c>
+      <c r="T110" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U110" s="1">
+        <v>126</v>
+      </c>
+      <c r="V110" s="1">
+        <v>159</v>
       </c>
       <c r="AC110" s="1"/>
       <c r="AE110" s="4"/>
@@ -18010,7 +19852,7 @@
         <v>20.095890601932346</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -18036,6 +19878,24 @@
       <c r="K111" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>9</v>
+      </c>
+      <c r="R111" s="1">
+        <v>52</v>
+      </c>
+      <c r="S111" s="1">
+        <v>71</v>
+      </c>
+      <c r="T111" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U111" s="1">
+        <v>126</v>
+      </c>
+      <c r="V111" s="1">
+        <v>159</v>
       </c>
       <c r="AC111" s="1"/>
       <c r="AE111" s="4"/>
@@ -18159,7 +20019,7 @@
         <v>20.879092161793615</v>
       </c>
     </row>
-    <row r="112" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -18193,6 +20053,24 @@
       </c>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
+      <c r="Q112" s="1">
+        <v>9</v>
+      </c>
+      <c r="R112" s="1">
+        <v>52</v>
+      </c>
+      <c r="S112" s="1">
+        <v>71</v>
+      </c>
+      <c r="T112" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U112" s="1">
+        <v>126</v>
+      </c>
+      <c r="V112" s="1">
+        <v>159</v>
+      </c>
       <c r="AC112" s="1"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
@@ -18268,7 +20146,7 @@
       <c r="DG112" s="1"/>
       <c r="DI112" s="1"/>
     </row>
-    <row r="113" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -18294,6 +20172,24 @@
       <c r="K113" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>9</v>
+      </c>
+      <c r="R113" s="1">
+        <v>52</v>
+      </c>
+      <c r="S113" s="1">
+        <v>71</v>
+      </c>
+      <c r="T113" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U113" s="1">
+        <v>126</v>
+      </c>
+      <c r="V113" s="1">
+        <v>159</v>
       </c>
       <c r="AC113" s="1"/>
       <c r="AE113" s="4"/>
@@ -18418,7 +20314,7 @@
         <v>21.680013908192429</v>
       </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -18453,8 +20349,23 @@
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q114" s="1">
+        <v>9</v>
+      </c>
+      <c r="R114" s="1">
+        <v>52</v>
+      </c>
+      <c r="S114" s="1">
+        <v>71</v>
+      </c>
       <c r="T114" s="1">
         <v>114.4</v>
+      </c>
+      <c r="U114" s="1">
+        <v>126</v>
+      </c>
+      <c r="V114" s="1">
+        <v>159</v>
       </c>
       <c r="AC114" s="1"/>
       <c r="AE114" s="4"/>
@@ -18531,7 +20442,7 @@
       <c r="DG114" s="1"/>
       <c r="DI114" s="1"/>
     </row>
-    <row r="115" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -18557,6 +20468,24 @@
       <c r="K115" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>9</v>
+      </c>
+      <c r="R115" s="1">
+        <v>52</v>
+      </c>
+      <c r="S115" s="1">
+        <v>71</v>
+      </c>
+      <c r="T115" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U115" s="1">
+        <v>126</v>
+      </c>
+      <c r="V115" s="1">
+        <v>159</v>
       </c>
       <c r="AC115" s="1"/>
       <c r="AE115" s="4"/>
@@ -18681,7 +20610,7 @@
         <v>19.133186353574324</v>
       </c>
     </row>
-    <row r="116" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -18715,6 +20644,24 @@
       </c>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
+      <c r="Q116" s="1">
+        <v>9</v>
+      </c>
+      <c r="R116" s="1">
+        <v>52</v>
+      </c>
+      <c r="S116" s="1">
+        <v>71</v>
+      </c>
+      <c r="T116" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U116" s="1">
+        <v>126</v>
+      </c>
+      <c r="V116" s="1">
+        <v>159</v>
+      </c>
       <c r="AC116" s="1"/>
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
@@ -18790,7 +20737,7 @@
       <c r="DG116" s="1"/>
       <c r="DI116" s="1"/>
     </row>
-    <row r="117" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -18816,6 +20763,24 @@
       <c r="K117" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>9</v>
+      </c>
+      <c r="R117" s="1">
+        <v>52</v>
+      </c>
+      <c r="S117" s="1">
+        <v>71</v>
+      </c>
+      <c r="T117" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U117" s="1">
+        <v>126</v>
+      </c>
+      <c r="V117" s="1">
+        <v>159</v>
       </c>
       <c r="AC117" s="1"/>
       <c r="AE117" s="4"/>
@@ -18940,7 +20905,7 @@
         <v>20.196152723990998</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -18975,8 +20940,23 @@
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q118" s="1">
+        <v>9</v>
+      </c>
+      <c r="R118" s="1">
+        <v>52</v>
+      </c>
+      <c r="S118" s="1">
+        <v>71</v>
+      </c>
+      <c r="T118" s="1">
+        <v>114.4</v>
+      </c>
       <c r="U118" s="1">
         <v>126</v>
+      </c>
+      <c r="V118" s="1">
+        <v>159</v>
       </c>
       <c r="AC118" s="1">
         <v>196.07002315502027</v>
@@ -19104,7 +21084,7 @@
       <c r="DG118" s="1"/>
       <c r="DI118" s="1"/>
     </row>
-    <row r="119" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -19130,6 +21110,24 @@
       <c r="K119" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>9</v>
+      </c>
+      <c r="R119" s="1">
+        <v>52</v>
+      </c>
+      <c r="S119" s="1">
+        <v>71</v>
+      </c>
+      <c r="T119" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U119" s="1">
+        <v>126</v>
+      </c>
+      <c r="V119" s="1">
+        <v>159</v>
       </c>
       <c r="AC119" s="1"/>
       <c r="AE119" s="4"/>
@@ -19253,7 +21251,7 @@
         <v>20.477930447183375</v>
       </c>
     </row>
-    <row r="120" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -19279,6 +21277,24 @@
       <c r="K120" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>9</v>
+      </c>
+      <c r="R120" s="1">
+        <v>52</v>
+      </c>
+      <c r="S120" s="1">
+        <v>71</v>
+      </c>
+      <c r="T120" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U120" s="1">
+        <v>126</v>
+      </c>
+      <c r="V120" s="1">
+        <v>159</v>
       </c>
       <c r="AC120" s="1"/>
       <c r="AE120" s="4"/>
@@ -19403,7 +21419,7 @@
         <v>20.547789339644517</v>
       </c>
     </row>
-    <row r="121" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -19429,6 +21445,24 @@
       <c r="K121" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>9</v>
+      </c>
+      <c r="R121" s="1">
+        <v>52</v>
+      </c>
+      <c r="S121" s="1">
+        <v>71</v>
+      </c>
+      <c r="T121" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U121" s="1">
+        <v>126</v>
+      </c>
+      <c r="V121" s="1">
+        <v>159</v>
       </c>
       <c r="AC121" s="1"/>
       <c r="AE121" s="4"/>
@@ -19553,7 +21587,7 @@
         <v>18.804889124764038</v>
       </c>
     </row>
-    <row r="122" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -19579,6 +21613,24 @@
       <c r="K122" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>9</v>
+      </c>
+      <c r="R122" s="1">
+        <v>52</v>
+      </c>
+      <c r="S122" s="1">
+        <v>71</v>
+      </c>
+      <c r="T122" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U122" s="1">
+        <v>126</v>
+      </c>
+      <c r="V122" s="1">
+        <v>159</v>
       </c>
       <c r="AC122" s="1"/>
       <c r="AE122" s="4"/>
@@ -19703,7 +21755,7 @@
         <v>19.521338224952054</v>
       </c>
     </row>
-    <row r="123" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -19729,6 +21781,24 @@
       <c r="K123" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>9</v>
+      </c>
+      <c r="R123" s="1">
+        <v>52</v>
+      </c>
+      <c r="S123" s="1">
+        <v>71</v>
+      </c>
+      <c r="T123" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U123" s="1">
+        <v>126</v>
+      </c>
+      <c r="V123" s="1">
+        <v>159</v>
       </c>
       <c r="AC123" s="1"/>
       <c r="AE123" s="4"/>
@@ -19853,7 +21923,7 @@
         <v>18.498417595260115</v>
       </c>
     </row>
-    <row r="124" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -19879,6 +21949,24 @@
       <c r="K124" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>9</v>
+      </c>
+      <c r="R124" s="1">
+        <v>52</v>
+      </c>
+      <c r="S124" s="1">
+        <v>71</v>
+      </c>
+      <c r="T124" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U124" s="1">
+        <v>126</v>
+      </c>
+      <c r="V124" s="1">
+        <v>159</v>
       </c>
       <c r="AC124" s="1"/>
       <c r="AE124" s="4"/>
@@ -20003,7 +22091,7 @@
         <v>18.902141532570063</v>
       </c>
     </row>
-    <row r="125" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -20029,6 +22117,24 @@
       <c r="K125" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>9</v>
+      </c>
+      <c r="R125" s="1">
+        <v>52</v>
+      </c>
+      <c r="S125" s="1">
+        <v>71</v>
+      </c>
+      <c r="T125" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U125" s="1">
+        <v>126</v>
+      </c>
+      <c r="V125" s="1">
+        <v>159</v>
       </c>
       <c r="AC125" s="1"/>
       <c r="AE125" s="4"/>
@@ -20153,7 +22259,7 @@
         <v>18.445495730645014</v>
       </c>
     </row>
-    <row r="126" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -20193,11 +22299,21 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
+      <c r="Q126" s="1">
+        <v>9</v>
+      </c>
+      <c r="R126" s="1">
+        <v>52</v>
+      </c>
+      <c r="S126" s="1">
+        <v>71</v>
+      </c>
+      <c r="T126" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U126" s="1">
+        <v>126</v>
+      </c>
       <c r="V126" s="1">
         <v>159</v>
       </c>
@@ -20327,7 +22443,7 @@
       <c r="EW126" s="4"/>
       <c r="EX126" s="4"/>
     </row>
-    <row r="127" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -20360,12 +22476,24 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
+      <c r="Q127" s="1">
+        <v>9</v>
+      </c>
+      <c r="R127" s="1">
+        <v>52</v>
+      </c>
+      <c r="S127" s="1">
+        <v>71</v>
+      </c>
+      <c r="T127" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U127" s="1">
+        <v>126</v>
+      </c>
+      <c r="V127" s="1">
+        <v>159</v>
+      </c>
       <c r="W127" s="1"/>
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
@@ -20498,7 +22626,7 @@
       <c r="EW127" s="4"/>
       <c r="EX127" s="4"/>
     </row>
-    <row r="128" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -20524,6 +22652,24 @@
       <c r="K128" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>9</v>
+      </c>
+      <c r="R128" s="1">
+        <v>52</v>
+      </c>
+      <c r="S128" s="1">
+        <v>71</v>
+      </c>
+      <c r="T128" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U128" s="1">
+        <v>126</v>
+      </c>
+      <c r="V128" s="1">
+        <v>159</v>
       </c>
       <c r="AC128" s="1"/>
       <c r="AE128" s="4"/>
@@ -20648,7 +22794,7 @@
         <v>15.430091137947278</v>
       </c>
     </row>
-    <row r="129" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -20673,6 +22819,24 @@
       <c r="K129" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>9</v>
+      </c>
+      <c r="R129" s="1">
+        <v>52</v>
+      </c>
+      <c r="S129" s="1">
+        <v>71</v>
+      </c>
+      <c r="T129" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U129" s="1">
+        <v>126</v>
+      </c>
+      <c r="V129" s="1">
+        <v>159</v>
       </c>
       <c r="AC129" s="1">
         <v>298.36872928519347</v>
@@ -20792,7 +22956,7 @@
       <c r="DG129" s="1"/>
       <c r="DI129" s="1"/>
     </row>
-    <row r="130" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -20826,6 +22990,24 @@
       <c r="K130" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>9</v>
+      </c>
+      <c r="R130" s="1">
+        <v>52</v>
+      </c>
+      <c r="S130" s="1">
+        <v>71</v>
+      </c>
+      <c r="T130" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U130" s="1">
+        <v>126</v>
+      </c>
+      <c r="V130" s="1">
+        <v>159</v>
       </c>
       <c r="AC130" s="1"/>
       <c r="AE130" s="4"/>
@@ -20963,7 +23145,7 @@
         <v>13.366367520272627</v>
       </c>
     </row>
-    <row r="131" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -20989,6 +23171,24 @@
       <c r="K131" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>9</v>
+      </c>
+      <c r="R131" s="1">
+        <v>52</v>
+      </c>
+      <c r="S131" s="1">
+        <v>71</v>
+      </c>
+      <c r="T131" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="U131" s="1">
+        <v>126</v>
+      </c>
+      <c r="V131" s="1">
+        <v>159</v>
       </c>
       <c r="AC131" s="1"/>
       <c r="AE131" s="4"/>
@@ -21113,7 +23313,7 @@
         <v>8.7299418708353542</v>
       </c>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>55</v>
       </c>
@@ -21153,13 +23353,27 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
+      <c r="Q132" s="1">
+        <v>9</v>
+      </c>
+      <c r="R132" s="1">
+        <v>52</v>
+      </c>
+      <c r="S132" s="1">
+        <v>71</v>
+      </c>
+      <c r="T132" s="1">
+        <v>116</v>
+      </c>
+      <c r="U132" s="1">
+        <v>143</v>
+      </c>
+      <c r="V132" s="1">
+        <v>163</v>
+      </c>
+      <c r="W132">
+        <v>175</v>
+      </c>
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
@@ -21292,7 +23506,7 @@
       <c r="EW132" s="4"/>
       <c r="EX132" s="4"/>
     </row>
-    <row r="133" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>55</v>
       </c>
@@ -21335,12 +23549,24 @@
       <c r="Q133" s="1">
         <v>9</v>
       </c>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
+      <c r="R133" s="1">
+        <v>52</v>
+      </c>
+      <c r="S133" s="1">
+        <v>71</v>
+      </c>
+      <c r="T133" s="1">
+        <v>116</v>
+      </c>
+      <c r="U133" s="1">
+        <v>143</v>
+      </c>
+      <c r="V133" s="1">
+        <v>163</v>
+      </c>
+      <c r="W133">
+        <v>175</v>
+      </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
@@ -21473,7 +23699,7 @@
       <c r="EW133" s="4"/>
       <c r="EX133" s="4"/>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>55</v>
       </c>
@@ -21499,6 +23725,27 @@
       <c r="K134" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>9</v>
+      </c>
+      <c r="R134" s="1">
+        <v>52</v>
+      </c>
+      <c r="S134" s="1">
+        <v>71</v>
+      </c>
+      <c r="T134" s="1">
+        <v>116</v>
+      </c>
+      <c r="U134" s="1">
+        <v>143</v>
+      </c>
+      <c r="V134" s="1">
+        <v>163</v>
+      </c>
+      <c r="W134">
+        <v>175</v>
       </c>
       <c r="AC134" s="1"/>
       <c r="AE134" s="4"/>
@@ -21623,7 +23870,7 @@
         <v>22.037314182138182</v>
       </c>
     </row>
-    <row r="135" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>55</v>
       </c>
@@ -21649,6 +23896,27 @@
       <c r="K135" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>9</v>
+      </c>
+      <c r="R135" s="1">
+        <v>52</v>
+      </c>
+      <c r="S135" s="1">
+        <v>71</v>
+      </c>
+      <c r="T135" s="1">
+        <v>116</v>
+      </c>
+      <c r="U135" s="1">
+        <v>143</v>
+      </c>
+      <c r="V135" s="1">
+        <v>163</v>
+      </c>
+      <c r="W135">
+        <v>175</v>
       </c>
       <c r="AC135" s="1"/>
       <c r="AE135" s="4"/>
@@ -21773,7 +24041,7 @@
         <v>22.481730705694808</v>
       </c>
     </row>
-    <row r="136" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -21813,15 +24081,27 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
-      <c r="Q136" s="1"/>
+      <c r="Q136" s="1">
+        <v>9</v>
+      </c>
       <c r="R136" s="1">
         <v>52</v>
       </c>
-      <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
+      <c r="S136" s="1">
+        <v>71</v>
+      </c>
+      <c r="T136" s="1">
+        <v>116</v>
+      </c>
+      <c r="U136" s="1">
+        <v>143</v>
+      </c>
+      <c r="V136" s="1">
+        <v>163</v>
+      </c>
+      <c r="W136">
+        <v>175</v>
+      </c>
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
@@ -21954,7 +24234,7 @@
       <c r="EW136" s="4"/>
       <c r="EX136" s="4"/>
     </row>
-    <row r="137" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -21980,6 +24260,27 @@
       <c r="K137" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>9</v>
+      </c>
+      <c r="R137" s="1">
+        <v>52</v>
+      </c>
+      <c r="S137" s="1">
+        <v>71</v>
+      </c>
+      <c r="T137" s="1">
+        <v>116</v>
+      </c>
+      <c r="U137" s="1">
+        <v>143</v>
+      </c>
+      <c r="V137" s="1">
+        <v>163</v>
+      </c>
+      <c r="W137">
+        <v>175</v>
       </c>
       <c r="AC137" s="1"/>
       <c r="AE137" s="4"/>
@@ -22104,7 +24405,7 @@
         <v>24.088280388475631</v>
       </c>
     </row>
-    <row r="138" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>55</v>
       </c>
@@ -22138,6 +24439,27 @@
       </c>
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
+      <c r="Q138" s="1">
+        <v>9</v>
+      </c>
+      <c r="R138" s="1">
+        <v>52</v>
+      </c>
+      <c r="S138" s="1">
+        <v>71</v>
+      </c>
+      <c r="T138" s="1">
+        <v>116</v>
+      </c>
+      <c r="U138" s="1">
+        <v>143</v>
+      </c>
+      <c r="V138" s="1">
+        <v>163</v>
+      </c>
+      <c r="W138">
+        <v>175</v>
+      </c>
       <c r="AC138" s="1"/>
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
@@ -22216,7 +24538,7 @@
       <c r="DH138" s="1"/>
       <c r="DI138" s="1"/>
     </row>
-    <row r="139" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>55</v>
       </c>
@@ -22242,6 +24564,27 @@
       <c r="K139" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>9</v>
+      </c>
+      <c r="R139" s="1">
+        <v>52</v>
+      </c>
+      <c r="S139" s="1">
+        <v>71</v>
+      </c>
+      <c r="T139" s="1">
+        <v>116</v>
+      </c>
+      <c r="U139" s="1">
+        <v>143</v>
+      </c>
+      <c r="V139" s="1">
+        <v>163</v>
+      </c>
+      <c r="W139">
+        <v>175</v>
       </c>
       <c r="AC139" s="1"/>
       <c r="AE139" s="4"/>
@@ -22366,7 +24709,7 @@
         <v>27.52826765502909</v>
       </c>
     </row>
-    <row r="140" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>55</v>
       </c>
@@ -22400,6 +24743,27 @@
       </c>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
+      <c r="Q140" s="1">
+        <v>9</v>
+      </c>
+      <c r="R140" s="1">
+        <v>52</v>
+      </c>
+      <c r="S140" s="1">
+        <v>71</v>
+      </c>
+      <c r="T140" s="1">
+        <v>116</v>
+      </c>
+      <c r="U140" s="1">
+        <v>143</v>
+      </c>
+      <c r="V140" s="1">
+        <v>163</v>
+      </c>
+      <c r="W140">
+        <v>175</v>
+      </c>
       <c r="AC140" s="1"/>
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
@@ -22478,7 +24842,7 @@
       <c r="DH140" s="1"/>
       <c r="DI140" s="1"/>
     </row>
-    <row r="141" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>55</v>
       </c>
@@ -22504,6 +24868,27 @@
       <c r="K141" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>9</v>
+      </c>
+      <c r="R141" s="1">
+        <v>52</v>
+      </c>
+      <c r="S141" s="1">
+        <v>71</v>
+      </c>
+      <c r="T141" s="1">
+        <v>116</v>
+      </c>
+      <c r="U141" s="1">
+        <v>143</v>
+      </c>
+      <c r="V141" s="1">
+        <v>163</v>
+      </c>
+      <c r="W141">
+        <v>175</v>
       </c>
       <c r="AC141" s="1"/>
       <c r="AE141" s="4"/>
@@ -22628,7 +25013,7 @@
         <v>26.648217614818229</v>
       </c>
     </row>
-    <row r="142" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>55</v>
       </c>
@@ -22663,6 +25048,27 @@
       </c>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
+      <c r="Q142" s="1">
+        <v>9</v>
+      </c>
+      <c r="R142" s="1">
+        <v>52</v>
+      </c>
+      <c r="S142" s="1">
+        <v>71</v>
+      </c>
+      <c r="T142" s="1">
+        <v>116</v>
+      </c>
+      <c r="U142" s="1">
+        <v>143</v>
+      </c>
+      <c r="V142" s="1">
+        <v>163</v>
+      </c>
+      <c r="W142">
+        <v>175</v>
+      </c>
       <c r="AC142" s="1"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
@@ -22786,7 +25192,7 @@
         <v>29.267741562633425</v>
       </c>
     </row>
-    <row r="143" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>55</v>
       </c>
@@ -22821,8 +25227,26 @@
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q143" s="1">
+        <v>9</v>
+      </c>
+      <c r="R143" s="1">
+        <v>52</v>
+      </c>
       <c r="S143" s="1">
         <v>71</v>
+      </c>
+      <c r="T143" s="1">
+        <v>116</v>
+      </c>
+      <c r="U143" s="1">
+        <v>143</v>
+      </c>
+      <c r="V143" s="1">
+        <v>163</v>
+      </c>
+      <c r="W143">
+        <v>175</v>
       </c>
       <c r="AC143" s="1">
         <v>38.975000000000001</v>
@@ -22947,7 +25371,7 @@
       <c r="DH143" s="1"/>
       <c r="DI143" s="1"/>
     </row>
-    <row r="144" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>55</v>
       </c>
@@ -22973,6 +25397,27 @@
       <c r="K144" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>9</v>
+      </c>
+      <c r="R144" s="1">
+        <v>52</v>
+      </c>
+      <c r="S144" s="1">
+        <v>71</v>
+      </c>
+      <c r="T144" s="1">
+        <v>116</v>
+      </c>
+      <c r="U144" s="1">
+        <v>143</v>
+      </c>
+      <c r="V144" s="1">
+        <v>163</v>
+      </c>
+      <c r="W144">
+        <v>175</v>
       </c>
       <c r="AC144" s="1"/>
       <c r="AE144" s="4"/>
@@ -23096,7 +25541,7 @@
         <v>31.502243617856386</v>
       </c>
     </row>
-    <row r="145" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
@@ -23122,6 +25567,27 @@
       <c r="K145" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>9</v>
+      </c>
+      <c r="R145" s="1">
+        <v>52</v>
+      </c>
+      <c r="S145" s="1">
+        <v>71</v>
+      </c>
+      <c r="T145" s="1">
+        <v>116</v>
+      </c>
+      <c r="U145" s="1">
+        <v>143</v>
+      </c>
+      <c r="V145" s="1">
+        <v>163</v>
+      </c>
+      <c r="W145">
+        <v>175</v>
       </c>
       <c r="AC145" s="1"/>
       <c r="AE145" s="4"/>
@@ -23245,7 +25711,7 @@
         <v>25.552738658514038</v>
       </c>
     </row>
-    <row r="146" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -23279,6 +25745,27 @@
       </c>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
+      <c r="Q146" s="1">
+        <v>9</v>
+      </c>
+      <c r="R146" s="1">
+        <v>52</v>
+      </c>
+      <c r="S146" s="1">
+        <v>71</v>
+      </c>
+      <c r="T146" s="1">
+        <v>116</v>
+      </c>
+      <c r="U146" s="1">
+        <v>143</v>
+      </c>
+      <c r="V146" s="1">
+        <v>163</v>
+      </c>
+      <c r="W146">
+        <v>175</v>
+      </c>
       <c r="AC146" s="1"/>
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
@@ -23356,7 +25843,7 @@
       <c r="DH146" s="1"/>
       <c r="DI146" s="1"/>
     </row>
-    <row r="147" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>55</v>
       </c>
@@ -23382,6 +25869,27 @@
       <c r="K147" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>9</v>
+      </c>
+      <c r="R147" s="1">
+        <v>52</v>
+      </c>
+      <c r="S147" s="1">
+        <v>71</v>
+      </c>
+      <c r="T147" s="1">
+        <v>116</v>
+      </c>
+      <c r="U147" s="1">
+        <v>143</v>
+      </c>
+      <c r="V147" s="1">
+        <v>163</v>
+      </c>
+      <c r="W147">
+        <v>175</v>
       </c>
       <c r="AC147" s="1"/>
       <c r="AE147" s="4"/>
@@ -23505,7 +26013,7 @@
         <v>25.667328507499839</v>
       </c>
     </row>
-    <row r="148" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -23539,6 +26047,27 @@
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
+      <c r="Q148" s="1">
+        <v>9</v>
+      </c>
+      <c r="R148" s="1">
+        <v>52</v>
+      </c>
+      <c r="S148" s="1">
+        <v>71</v>
+      </c>
+      <c r="T148" s="1">
+        <v>116</v>
+      </c>
+      <c r="U148" s="1">
+        <v>143</v>
+      </c>
+      <c r="V148" s="1">
+        <v>163</v>
+      </c>
+      <c r="W148">
+        <v>175</v>
+      </c>
       <c r="AC148" s="1"/>
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
@@ -23617,7 +26146,7 @@
       <c r="DH148" s="1"/>
       <c r="DI148" s="1"/>
     </row>
-    <row r="149" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>55</v>
       </c>
@@ -23642,6 +26171,27 @@
       <c r="K149" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>9</v>
+      </c>
+      <c r="R149" s="1">
+        <v>52</v>
+      </c>
+      <c r="S149" s="1">
+        <v>71</v>
+      </c>
+      <c r="T149" s="1">
+        <v>116</v>
+      </c>
+      <c r="U149" s="1">
+        <v>143</v>
+      </c>
+      <c r="V149" s="1">
+        <v>163</v>
+      </c>
+      <c r="W149">
+        <v>175</v>
       </c>
       <c r="AC149" s="1">
         <v>95.05</v>
@@ -23816,7 +26366,7 @@
         <v>26.496959014156978</v>
       </c>
     </row>
-    <row r="150" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>55</v>
       </c>
@@ -23842,6 +26392,27 @@
       <c r="K150" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>9</v>
+      </c>
+      <c r="R150" s="1">
+        <v>52</v>
+      </c>
+      <c r="S150" s="1">
+        <v>71</v>
+      </c>
+      <c r="T150" s="1">
+        <v>116</v>
+      </c>
+      <c r="U150" s="1">
+        <v>143</v>
+      </c>
+      <c r="V150" s="1">
+        <v>163</v>
+      </c>
+      <c r="W150">
+        <v>175</v>
       </c>
       <c r="AC150" s="1"/>
       <c r="AE150" s="4"/>
@@ -23965,7 +26536,7 @@
         <v>26.790309027560603</v>
       </c>
     </row>
-    <row r="151" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>55</v>
       </c>
@@ -23991,6 +26562,27 @@
       <c r="K151" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>9</v>
+      </c>
+      <c r="R151" s="1">
+        <v>52</v>
+      </c>
+      <c r="S151" s="1">
+        <v>71</v>
+      </c>
+      <c r="T151" s="1">
+        <v>116</v>
+      </c>
+      <c r="U151" s="1">
+        <v>143</v>
+      </c>
+      <c r="V151" s="1">
+        <v>163</v>
+      </c>
+      <c r="W151">
+        <v>175</v>
       </c>
       <c r="AC151" s="1"/>
       <c r="AE151" s="4"/>
@@ -24114,7 +26706,7 @@
         <v>26.36585896297256</v>
       </c>
     </row>
-    <row r="152" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>55</v>
       </c>
@@ -24148,6 +26740,27 @@
       </c>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
+      <c r="Q152" s="1">
+        <v>9</v>
+      </c>
+      <c r="R152" s="1">
+        <v>52</v>
+      </c>
+      <c r="S152" s="1">
+        <v>71</v>
+      </c>
+      <c r="T152" s="1">
+        <v>116</v>
+      </c>
+      <c r="U152" s="1">
+        <v>143</v>
+      </c>
+      <c r="V152" s="1">
+        <v>163</v>
+      </c>
+      <c r="W152">
+        <v>175</v>
+      </c>
       <c r="AC152" s="1"/>
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
@@ -24225,7 +26838,7 @@
       <c r="DH152" s="1"/>
       <c r="DI152" s="1"/>
     </row>
-    <row r="153" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>55</v>
       </c>
@@ -24251,6 +26864,27 @@
       <c r="K153" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>9</v>
+      </c>
+      <c r="R153" s="1">
+        <v>52</v>
+      </c>
+      <c r="S153" s="1">
+        <v>71</v>
+      </c>
+      <c r="T153" s="1">
+        <v>116</v>
+      </c>
+      <c r="U153" s="1">
+        <v>143</v>
+      </c>
+      <c r="V153" s="1">
+        <v>163</v>
+      </c>
+      <c r="W153">
+        <v>175</v>
       </c>
       <c r="AC153" s="1"/>
       <c r="AE153" s="4"/>
@@ -24375,7 +27009,7 @@
         <v>25.465211345077201</v>
       </c>
     </row>
-    <row r="154" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>55</v>
       </c>
@@ -24410,6 +27044,27 @@
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
+      <c r="Q154" s="1">
+        <v>9</v>
+      </c>
+      <c r="R154" s="1">
+        <v>52</v>
+      </c>
+      <c r="S154" s="1">
+        <v>71</v>
+      </c>
+      <c r="T154" s="1">
+        <v>116</v>
+      </c>
+      <c r="U154" s="1">
+        <v>143</v>
+      </c>
+      <c r="V154" s="1">
+        <v>163</v>
+      </c>
+      <c r="W154">
+        <v>175</v>
+      </c>
       <c r="AC154" s="1"/>
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
@@ -24533,7 +27188,7 @@
         <v>24.004039735070968</v>
       </c>
     </row>
-    <row r="155" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -24559,6 +27214,27 @@
       <c r="K155" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>9</v>
+      </c>
+      <c r="R155" s="1">
+        <v>52</v>
+      </c>
+      <c r="S155" s="1">
+        <v>71</v>
+      </c>
+      <c r="T155" s="1">
+        <v>116</v>
+      </c>
+      <c r="U155" s="1">
+        <v>143</v>
+      </c>
+      <c r="V155" s="1">
+        <v>163</v>
+      </c>
+      <c r="W155">
+        <v>175</v>
       </c>
       <c r="AC155" s="1"/>
       <c r="AE155" s="4"/>
@@ -24683,7 +27359,7 @@
         <v>25.391681680422742</v>
       </c>
     </row>
-    <row r="156" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>55</v>
       </c>
@@ -24708,6 +27384,27 @@
       <c r="K156" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>9</v>
+      </c>
+      <c r="R156" s="1">
+        <v>52</v>
+      </c>
+      <c r="S156" s="1">
+        <v>71</v>
+      </c>
+      <c r="T156" s="1">
+        <v>116</v>
+      </c>
+      <c r="U156" s="1">
+        <v>143</v>
+      </c>
+      <c r="V156" s="1">
+        <v>163</v>
+      </c>
+      <c r="W156">
+        <v>175</v>
       </c>
       <c r="AC156" s="1">
         <v>198.57499999999999</v>
@@ -24882,7 +27579,7 @@
         <v>25.460882323103796</v>
       </c>
     </row>
-    <row r="157" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -24908,6 +27605,27 @@
       <c r="K157" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>9</v>
+      </c>
+      <c r="R157" s="1">
+        <v>52</v>
+      </c>
+      <c r="S157" s="1">
+        <v>71</v>
+      </c>
+      <c r="T157" s="1">
+        <v>116</v>
+      </c>
+      <c r="U157" s="1">
+        <v>143</v>
+      </c>
+      <c r="V157" s="1">
+        <v>163</v>
+      </c>
+      <c r="W157">
+        <v>175</v>
       </c>
       <c r="AC157" s="1"/>
       <c r="AE157" s="4"/>
@@ -25031,7 +27749,7 @@
         <v>25.837528823405869</v>
       </c>
     </row>
-    <row r="158" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -25066,6 +27784,27 @@
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
+      <c r="Q158" s="1">
+        <v>9</v>
+      </c>
+      <c r="R158" s="1">
+        <v>52</v>
+      </c>
+      <c r="S158" s="1">
+        <v>71</v>
+      </c>
+      <c r="T158" s="1">
+        <v>116</v>
+      </c>
+      <c r="U158" s="1">
+        <v>143</v>
+      </c>
+      <c r="V158" s="1">
+        <v>163</v>
+      </c>
+      <c r="W158">
+        <v>175</v>
+      </c>
       <c r="AC158" s="1"/>
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
@@ -25188,7 +27927,7 @@
         <v>26.232987950932717</v>
       </c>
     </row>
-    <row r="159" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>55</v>
       </c>
@@ -25214,6 +27953,27 @@
       <c r="K159" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>9</v>
+      </c>
+      <c r="R159" s="1">
+        <v>52</v>
+      </c>
+      <c r="S159" s="1">
+        <v>71</v>
+      </c>
+      <c r="T159" s="1">
+        <v>116</v>
+      </c>
+      <c r="U159" s="1">
+        <v>143</v>
+      </c>
+      <c r="V159" s="1">
+        <v>163</v>
+      </c>
+      <c r="W159">
+        <v>175</v>
       </c>
       <c r="AC159" s="1"/>
       <c r="AE159" s="4"/>
@@ -25338,7 +28098,7 @@
         <v>26.63807947249969</v>
       </c>
     </row>
-    <row r="160" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>55</v>
       </c>
@@ -25373,8 +28133,26 @@
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
       </c>
+      <c r="Q160" s="1">
+        <v>9</v>
+      </c>
+      <c r="R160" s="1">
+        <v>52</v>
+      </c>
+      <c r="S160" s="1">
+        <v>71</v>
+      </c>
       <c r="T160" s="1">
         <v>116</v>
+      </c>
+      <c r="U160" s="1">
+        <v>143</v>
+      </c>
+      <c r="V160" s="1">
+        <v>163</v>
+      </c>
+      <c r="W160">
+        <v>175</v>
       </c>
       <c r="AC160" s="1"/>
       <c r="AE160" s="4"/>
@@ -25454,7 +28232,7 @@
       <c r="DH160" s="1"/>
       <c r="DI160" s="1"/>
     </row>
-    <row r="161" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -25480,6 +28258,27 @@
       <c r="K161" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>9</v>
+      </c>
+      <c r="R161" s="1">
+        <v>52</v>
+      </c>
+      <c r="S161" s="1">
+        <v>71</v>
+      </c>
+      <c r="T161" s="1">
+        <v>116</v>
+      </c>
+      <c r="U161" s="1">
+        <v>143</v>
+      </c>
+      <c r="V161" s="1">
+        <v>163</v>
+      </c>
+      <c r="W161">
+        <v>175</v>
       </c>
       <c r="AC161" s="1"/>
       <c r="AE161" s="4"/>
@@ -25604,7 +28403,7 @@
         <v>26.706739052426308</v>
       </c>
     </row>
-    <row r="162" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>55</v>
       </c>
@@ -25639,6 +28438,27 @@
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
+      <c r="Q162" s="1">
+        <v>9</v>
+      </c>
+      <c r="R162" s="1">
+        <v>52</v>
+      </c>
+      <c r="S162" s="1">
+        <v>71</v>
+      </c>
+      <c r="T162" s="1">
+        <v>116</v>
+      </c>
+      <c r="U162" s="1">
+        <v>143</v>
+      </c>
+      <c r="V162" s="1">
+        <v>163</v>
+      </c>
+      <c r="W162">
+        <v>175</v>
+      </c>
       <c r="AC162" s="1"/>
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
@@ -25762,7 +28582,7 @@
         <v>23.075783602468952</v>
       </c>
     </row>
-    <row r="163" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -25788,6 +28608,27 @@
       <c r="K163" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>9</v>
+      </c>
+      <c r="R163" s="1">
+        <v>52</v>
+      </c>
+      <c r="S163" s="1">
+        <v>71</v>
+      </c>
+      <c r="T163" s="1">
+        <v>116</v>
+      </c>
+      <c r="U163" s="1">
+        <v>143</v>
+      </c>
+      <c r="V163" s="1">
+        <v>163</v>
+      </c>
+      <c r="W163">
+        <v>175</v>
       </c>
       <c r="AC163" s="1"/>
       <c r="AE163" s="4"/>
@@ -25912,7 +28753,7 @@
         <v>25.446939858118704</v>
       </c>
     </row>
-    <row r="164" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>55</v>
       </c>
@@ -25937,6 +28778,27 @@
       <c r="K164" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>9</v>
+      </c>
+      <c r="R164" s="1">
+        <v>52</v>
+      </c>
+      <c r="S164" s="1">
+        <v>71</v>
+      </c>
+      <c r="T164" s="1">
+        <v>116</v>
+      </c>
+      <c r="U164" s="1">
+        <v>143</v>
+      </c>
+      <c r="V164" s="1">
+        <v>163</v>
+      </c>
+      <c r="W164">
+        <v>175</v>
       </c>
       <c r="AC164" s="1">
         <v>245.88715456619735</v>
@@ -26111,7 +28973,7 @@
         <v>24.236736227595053</v>
       </c>
     </row>
-    <row r="165" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -26137,6 +28999,27 @@
       <c r="K165" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>9</v>
+      </c>
+      <c r="R165" s="1">
+        <v>52</v>
+      </c>
+      <c r="S165" s="1">
+        <v>71</v>
+      </c>
+      <c r="T165" s="1">
+        <v>116</v>
+      </c>
+      <c r="U165" s="1">
+        <v>143</v>
+      </c>
+      <c r="V165" s="1">
+        <v>163</v>
+      </c>
+      <c r="W165">
+        <v>175</v>
       </c>
       <c r="AC165" s="1"/>
       <c r="AE165" s="4"/>
@@ -26260,7 +29143,7 @@
         <v>26.400034566321359</v>
       </c>
     </row>
-    <row r="166" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -26286,6 +29169,27 @@
       <c r="K166" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>9</v>
+      </c>
+      <c r="R166" s="1">
+        <v>52</v>
+      </c>
+      <c r="S166" s="1">
+        <v>71</v>
+      </c>
+      <c r="T166" s="1">
+        <v>116</v>
+      </c>
+      <c r="U166" s="1">
+        <v>143</v>
+      </c>
+      <c r="V166" s="1">
+        <v>163</v>
+      </c>
+      <c r="W166">
+        <v>175</v>
       </c>
       <c r="AC166" s="1"/>
       <c r="AE166" s="4"/>
@@ -26410,7 +29314,7 @@
         <v>24.887647769221523</v>
       </c>
     </row>
-    <row r="167" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>55</v>
       </c>
@@ -26436,6 +29340,27 @@
       <c r="K167" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>9</v>
+      </c>
+      <c r="R167" s="1">
+        <v>52</v>
+      </c>
+      <c r="S167" s="1">
+        <v>71</v>
+      </c>
+      <c r="T167" s="1">
+        <v>116</v>
+      </c>
+      <c r="U167" s="1">
+        <v>143</v>
+      </c>
+      <c r="V167" s="1">
+        <v>163</v>
+      </c>
+      <c r="W167">
+        <v>175</v>
       </c>
       <c r="AC167" s="1"/>
       <c r="AE167" s="4"/>
@@ -26560,7 +29485,7 @@
         <v>24.713297890096662</v>
       </c>
     </row>
-    <row r="168" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>55</v>
       </c>
@@ -26600,15 +29525,27 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
+      <c r="Q168" s="1">
+        <v>9</v>
+      </c>
+      <c r="R168" s="1">
+        <v>52</v>
+      </c>
+      <c r="S168" s="1">
+        <v>71</v>
+      </c>
+      <c r="T168" s="1">
+        <v>116</v>
+      </c>
       <c r="U168" s="1">
         <v>143</v>
       </c>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
+      <c r="V168" s="1">
+        <v>163</v>
+      </c>
+      <c r="W168">
+        <v>175</v>
+      </c>
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
@@ -26741,7 +29678,7 @@
       <c r="EW168" s="4"/>
       <c r="EX168" s="4"/>
     </row>
-    <row r="169" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>55</v>
       </c>
@@ -26767,6 +29704,27 @@
       <c r="K169" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>9</v>
+      </c>
+      <c r="R169" s="1">
+        <v>52</v>
+      </c>
+      <c r="S169" s="1">
+        <v>71</v>
+      </c>
+      <c r="T169" s="1">
+        <v>116</v>
+      </c>
+      <c r="U169" s="1">
+        <v>143</v>
+      </c>
+      <c r="V169" s="1">
+        <v>163</v>
+      </c>
+      <c r="W169">
+        <v>175</v>
       </c>
       <c r="AC169" s="1"/>
       <c r="AE169" s="4"/>
@@ -26891,7 +29849,7 @@
         <v>24.865946487322056</v>
       </c>
     </row>
-    <row r="170" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>55</v>
       </c>
@@ -26917,6 +29875,27 @@
       <c r="K170" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>9</v>
+      </c>
+      <c r="R170" s="1">
+        <v>52</v>
+      </c>
+      <c r="S170" s="1">
+        <v>71</v>
+      </c>
+      <c r="T170" s="1">
+        <v>116</v>
+      </c>
+      <c r="U170" s="1">
+        <v>143</v>
+      </c>
+      <c r="V170" s="1">
+        <v>163</v>
+      </c>
+      <c r="W170">
+        <v>175</v>
       </c>
       <c r="AC170" s="1"/>
       <c r="AE170" s="4"/>
@@ -27041,7 +30020,7 @@
         <v>24.734978405841112</v>
       </c>
     </row>
-    <row r="171" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -27067,6 +30046,27 @@
       <c r="K171" s="1">
         <f t="shared" si="4"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>9</v>
+      </c>
+      <c r="R171" s="1">
+        <v>52</v>
+      </c>
+      <c r="S171" s="1">
+        <v>71</v>
+      </c>
+      <c r="T171" s="1">
+        <v>116</v>
+      </c>
+      <c r="U171" s="1">
+        <v>143</v>
+      </c>
+      <c r="V171" s="1">
+        <v>163</v>
+      </c>
+      <c r="W171">
+        <v>175</v>
       </c>
       <c r="AC171" s="1"/>
       <c r="AE171" s="4"/>
@@ -27191,7 +30191,7 @@
         <v>26.189858839145778</v>
       </c>
     </row>
-    <row r="172" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -27217,6 +30217,27 @@
       <c r="K172" s="1">
         <f t="shared" ref="K172:K179" si="11">1000000/I172/J172</f>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>9</v>
+      </c>
+      <c r="R172" s="1">
+        <v>52</v>
+      </c>
+      <c r="S172" s="1">
+        <v>71</v>
+      </c>
+      <c r="T172" s="1">
+        <v>116</v>
+      </c>
+      <c r="U172" s="1">
+        <v>143</v>
+      </c>
+      <c r="V172" s="1">
+        <v>163</v>
+      </c>
+      <c r="W172">
+        <v>175</v>
       </c>
       <c r="AC172" s="1"/>
       <c r="AE172" s="4"/>
@@ -27341,7 +30362,7 @@
         <v>25.761665175829343</v>
       </c>
     </row>
-    <row r="173" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -27367,6 +30388,27 @@
       <c r="K173" s="1">
         <f t="shared" si="11"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>9</v>
+      </c>
+      <c r="R173" s="1">
+        <v>52</v>
+      </c>
+      <c r="S173" s="1">
+        <v>71</v>
+      </c>
+      <c r="T173" s="1">
+        <v>116</v>
+      </c>
+      <c r="U173" s="1">
+        <v>143</v>
+      </c>
+      <c r="V173" s="1">
+        <v>163</v>
+      </c>
+      <c r="W173">
+        <v>175</v>
       </c>
       <c r="AC173" s="1"/>
       <c r="AE173" s="4"/>
@@ -27491,7 +30533,7 @@
         <v>24.441791562110744</v>
       </c>
     </row>
-    <row r="174" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -27524,13 +30566,27 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
+      <c r="Q174" s="1">
+        <v>9</v>
+      </c>
+      <c r="R174" s="1">
+        <v>52</v>
+      </c>
+      <c r="S174" s="1">
+        <v>71</v>
+      </c>
+      <c r="T174" s="1">
+        <v>116</v>
+      </c>
+      <c r="U174" s="1">
+        <v>143</v>
+      </c>
+      <c r="V174" s="1">
+        <v>163</v>
+      </c>
+      <c r="W174">
+        <v>175</v>
+      </c>
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
@@ -27669,7 +30725,7 @@
       <c r="EW174" s="4"/>
       <c r="EX174" s="4"/>
     </row>
-    <row r="175" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -27695,6 +30751,27 @@
       <c r="K175" s="1">
         <f t="shared" si="11"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>9</v>
+      </c>
+      <c r="R175" s="1">
+        <v>52</v>
+      </c>
+      <c r="S175" s="1">
+        <v>71</v>
+      </c>
+      <c r="T175" s="1">
+        <v>116</v>
+      </c>
+      <c r="U175" s="1">
+        <v>143</v>
+      </c>
+      <c r="V175" s="1">
+        <v>163</v>
+      </c>
+      <c r="W175">
+        <v>175</v>
       </c>
       <c r="AC175" s="1"/>
       <c r="AE175" s="4"/>
@@ -27819,7 +30896,7 @@
         <v>23.916793589872533</v>
       </c>
     </row>
-    <row r="176" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -27859,15 +30936,27 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
+      <c r="Q176" s="1">
+        <v>9</v>
+      </c>
+      <c r="R176" s="1">
+        <v>52</v>
+      </c>
+      <c r="S176" s="1">
+        <v>71</v>
+      </c>
+      <c r="T176" s="1">
+        <v>116</v>
+      </c>
+      <c r="U176" s="1">
+        <v>143</v>
+      </c>
       <c r="V176" s="1">
         <v>163</v>
       </c>
-      <c r="W176" s="1"/>
+      <c r="W176">
+        <v>175</v>
+      </c>
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
@@ -28000,7 +31089,7 @@
       <c r="EW176" s="4"/>
       <c r="EX176" s="4"/>
     </row>
-    <row r="177" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -28025,6 +31114,27 @@
       <c r="K177" s="1">
         <f t="shared" si="11"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>9</v>
+      </c>
+      <c r="R177" s="1">
+        <v>52</v>
+      </c>
+      <c r="S177" s="1">
+        <v>71</v>
+      </c>
+      <c r="T177" s="1">
+        <v>116</v>
+      </c>
+      <c r="U177" s="1">
+        <v>143</v>
+      </c>
+      <c r="V177" s="1">
+        <v>163</v>
+      </c>
+      <c r="W177">
+        <v>175</v>
       </c>
       <c r="AC177" s="1">
         <v>387.39665481441529</v>
@@ -28153,7 +31263,7 @@
       <c r="DH177" s="1"/>
       <c r="DI177" s="1"/>
     </row>
-    <row r="178" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>55</v>
       </c>
@@ -28179,6 +31289,27 @@
       <c r="K178" s="1">
         <f t="shared" si="11"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>9</v>
+      </c>
+      <c r="R178" s="1">
+        <v>52</v>
+      </c>
+      <c r="S178" s="1">
+        <v>71</v>
+      </c>
+      <c r="T178" s="1">
+        <v>116</v>
+      </c>
+      <c r="U178" s="1">
+        <v>143</v>
+      </c>
+      <c r="V178" s="1">
+        <v>163</v>
+      </c>
+      <c r="W178">
+        <v>175</v>
       </c>
       <c r="AC178" s="1"/>
       <c r="AE178" s="4"/>
@@ -28303,7 +31434,7 @@
         <v>25.576177902198374</v>
       </c>
     </row>
-    <row r="179" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -28337,6 +31468,24 @@
       <c r="K179" s="1">
         <f t="shared" si="11"/>
         <v>90.909090909090907</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>9</v>
+      </c>
+      <c r="R179" s="1">
+        <v>52</v>
+      </c>
+      <c r="S179" s="1">
+        <v>71</v>
+      </c>
+      <c r="T179" s="1">
+        <v>116</v>
+      </c>
+      <c r="U179" s="1">
+        <v>143</v>
+      </c>
+      <c r="V179" s="1">
+        <v>163</v>
       </c>
       <c r="W179">
         <v>175</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DDF832-8E0E-4FE0-9803-522A59C10200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C72766-6986-4F18-B51B-A07FA2741A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,6 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Fruit.NConc</t>
   </si>
 </sst>
 </file>
@@ -944,154 +944,154 @@
   <dimension ref="A1:EX179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
+      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="37.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="19.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="26.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="18.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.73046875" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="33.265625" customWidth="1"/>
-    <col min="22" max="22" width="31.59765625" customWidth="1"/>
-    <col min="23" max="23" width="34.86328125" customWidth="1"/>
-    <col min="24" max="24" width="13.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
-    <col min="27" max="27" width="14.86328125" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" customWidth="1"/>
-    <col min="29" max="29" width="17.73046875" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="16.59765625" customWidth="1"/>
-    <col min="32" max="32" width="29.3984375" customWidth="1"/>
-    <col min="33" max="33" width="33.86328125" customWidth="1"/>
-    <col min="34" max="34" width="33.59765625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" customWidth="1"/>
     <col min="35" max="35" width="38" customWidth="1"/>
-    <col min="36" max="36" width="21.1328125" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" customWidth="1"/>
-    <col min="39" max="39" width="25.1328125" customWidth="1"/>
-    <col min="40" max="40" width="29.59765625" customWidth="1"/>
-    <col min="41" max="41" width="26.265625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" customWidth="1"/>
+    <col min="40" max="40" width="29.5703125" customWidth="1"/>
+    <col min="41" max="41" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" style="6" customWidth="1"/>
-    <col min="53" max="53" width="7.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.73046875" style="6" customWidth="1"/>
-    <col min="57" max="57" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" style="6" customWidth="1"/>
+    <col min="57" max="57" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.73046875" customWidth="1"/>
-    <col min="67" max="67" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="32" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="12" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="12" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="12" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="12" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="13" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="13" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="7" bestFit="1" customWidth="1"/>
     <col min="138" max="145" width="18" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="147" max="154" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="154" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,10 +1135,10 @@
         <v>71</v>
       </c>
       <c r="O1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" t="s">
         <v>139</v>
-      </c>
-      <c r="P1" t="s">
-        <v>140</v>
       </c>
       <c r="Q1" t="s">
         <v>60</v>
@@ -1159,7 +1159,7 @@
         <v>62</v>
       </c>
       <c r="W1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X1" t="s">
         <v>17</v>
@@ -1186,16 +1186,16 @@
         <v>87</v>
       </c>
       <c r="AF1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH1" t="s">
         <v>150</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>152</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>153</v>
       </c>
       <c r="AJ1" t="s">
         <v>65</v>
@@ -1204,22 +1204,22 @@
         <v>67</v>
       </c>
       <c r="AL1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN1" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" t="s">
-        <v>148</v>
-      </c>
       <c r="AO1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AQ1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AR1" t="s">
         <v>66</v>
@@ -1228,16 +1228,16 @@
         <v>88</v>
       </c>
       <c r="AT1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU1" s="6" t="s">
         <v>114</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AX1" t="s">
         <v>115</v>
@@ -1246,19 +1246,19 @@
         <v>116</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BA1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="BE1" t="s">
         <v>117</v>
@@ -1273,7 +1273,7 @@
         <v>84</v>
       </c>
       <c r="BI1" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="BJ1" t="s">
         <v>86</v>
@@ -1282,49 +1282,49 @@
         <v>68</v>
       </c>
       <c r="BL1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BM1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BN1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BQ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU1" t="s">
         <v>141</v>
       </c>
-      <c r="BR1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX1" t="s">
         <v>123</v>
       </c>
-      <c r="BU1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>124</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>125</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>126</v>
       </c>
       <c r="CA1" t="s">
         <v>85</v>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI1" t="s">
         <v>51</v>
@@ -1369,85 +1369,85 @@
         <v>74</v>
       </c>
       <c r="CO1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CP1" t="s">
         <v>100</v>
       </c>
       <c r="CQ1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CR1" t="s">
         <v>89</v>
       </c>
       <c r="CS1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CT1" t="s">
         <v>90</v>
       </c>
       <c r="CU1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CV1" t="s">
         <v>98</v>
       </c>
       <c r="CW1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CX1" t="s">
         <v>97</v>
       </c>
       <c r="CY1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CZ1" t="s">
         <v>96</v>
       </c>
       <c r="DA1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DB1" t="s">
         <v>105</v>
       </c>
       <c r="DC1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DD1" t="s">
         <v>106</v>
       </c>
       <c r="DE1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DF1" t="s">
         <v>95</v>
       </c>
       <c r="DG1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DH1" t="s">
         <v>94</v>
       </c>
       <c r="DI1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DJ1" t="s">
         <v>93</v>
       </c>
       <c r="DK1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DL1" t="s">
         <v>92</v>
       </c>
       <c r="DM1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DN1" t="s">
         <v>91</v>
       </c>
       <c r="DO1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DP1" t="s">
         <v>46</v>
@@ -1456,49 +1456,49 @@
         <v>22</v>
       </c>
       <c r="DR1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="DS1" t="s">
         <v>23</v>
       </c>
       <c r="DT1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DU1" t="s">
         <v>24</v>
       </c>
       <c r="DV1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DW1" t="s">
         <v>25</v>
       </c>
       <c r="DX1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DY1" t="s">
         <v>26</v>
       </c>
       <c r="DZ1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EA1" t="s">
         <v>27</v>
       </c>
       <c r="EB1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EC1" t="s">
         <v>28</v>
       </c>
       <c r="ED1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="EE1" t="s">
         <v>29</v>
       </c>
       <c r="EF1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EG1" t="s">
         <v>47</v>
@@ -1555,7 +1555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="EW2" s="4"/>
       <c r="EX2" s="4"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="EW3" s="4"/>
       <c r="EX3" s="4"/>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>16.010631650436061</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>16.493265197697319</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="EW6" s="4"/>
       <c r="EX6" s="4"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>15.441330384007751</v>
       </c>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="DG8" s="1"/>
       <c r="DI8" s="1"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>16.080741741348483</v>
       </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>17.483321492934543</v>
       </c>
     </row>
-    <row r="11" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>16.894329669147588</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="DG13" s="1"/>
       <c r="DI13" s="1"/>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>17.085661115823875</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="DG15" s="1"/>
       <c r="DI15" s="1"/>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>17.522482067151365</v>
       </c>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="DG17" s="1"/>
       <c r="DI17" s="1"/>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>15.923708376117537</v>
       </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>15.238380573234144</v>
       </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>17.292592528779501</v>
       </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="DG21" s="1"/>
       <c r="DI21" s="1"/>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="DG22" s="1"/>
       <c r="DI22" s="1"/>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>15.945993669580185</v>
       </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="DG24" s="1"/>
       <c r="DI24" s="1"/>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>18.034085436564901</v>
       </c>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>18.458425326931398</v>
       </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>16.551369328876909</v>
       </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="DG28" s="1"/>
       <c r="DI28" s="1"/>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>15.983232130895567</v>
       </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>15.60075707141022</v>
       </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>13.259282572280318</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>12.817559356468569</v>
       </c>
     </row>
-    <row r="33" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="EW33" s="4"/>
       <c r="EX33" s="4"/>
     </row>
-    <row r="34" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>8.7222077431954474</v>
       </c>
     </row>
-    <row r="35" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="EW35" s="4"/>
       <c r="EX35" s="4"/>
     </row>
-    <row r="36" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>8.6605462459301279</v>
       </c>
     </row>
-    <row r="37" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="DG37" s="1"/>
       <c r="DI37" s="1"/>
     </row>
-    <row r="38" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>6.6291275166864736</v>
       </c>
     </row>
-    <row r="39" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>5.5178250121684371</v>
       </c>
     </row>
-    <row r="40" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="EW40" s="4"/>
       <c r="EX40" s="4"/>
     </row>
-    <row r="41" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="EW41" s="4"/>
       <c r="EX41" s="4"/>
     </row>
-    <row r="42" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>17.335688102108683</v>
       </c>
     </row>
-    <row r="43" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>19.103621957593667</v>
       </c>
     </row>
-    <row r="44" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -8132,7 +8132,7 @@
       <c r="EW44" s="4"/>
       <c r="EX44" s="4"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>20.866013834995151</v>
       </c>
     </row>
-    <row r="46" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>19.02440156097817</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>16.715838865809893</v>
       </c>
     </row>
-    <row r="48" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>19.399352474859036</v>
       </c>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="DH49" s="1"/>
       <c r="DI49" s="1"/>
     </row>
-    <row r="50" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>19.700794459659328</v>
       </c>
     </row>
-    <row r="51" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>20.174489007202617</v>
       </c>
     </row>
-    <row r="52" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="DH52" s="1"/>
       <c r="DI52" s="1"/>
     </row>
-    <row r="53" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>17.339121165208986</v>
       </c>
     </row>
-    <row r="54" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>18.034930859447222</v>
       </c>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="DH55" s="1"/>
       <c r="DI55" s="1"/>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>17.586167603879893</v>
       </c>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="DH57" s="1"/>
       <c r="DI57" s="1"/>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>18.771537213282535</v>
       </c>
     </row>
-    <row r="59" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="DH59" s="1"/>
       <c r="DI59" s="1"/>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>18.590218726184595</v>
       </c>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>19.279319717237705</v>
       </c>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>20.968545862412562</v>
       </c>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="DH63" s="1"/>
       <c r="DI63" s="1"/>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>19.549461512314018</v>
       </c>
     </row>
-    <row r="65" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>19.909789090228109</v>
       </c>
     </row>
-    <row r="66" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="DH66" s="1"/>
       <c r="DI66" s="1"/>
     </row>
-    <row r="67" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>20.281290556680283</v>
       </c>
     </row>
-    <row r="68" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>20.45930989232729</v>
       </c>
     </row>
-    <row r="69" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>21.54360948217721</v>
       </c>
     </row>
-    <row r="70" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>19.377982796022515</v>
       </c>
     </row>
-    <row r="71" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -12072,7 +12072,7 @@
       <c r="DH71" s="1"/>
       <c r="DI71" s="1"/>
     </row>
-    <row r="72" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>19.575908585685092</v>
       </c>
     </row>
-    <row r="73" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>20.270950312174698</v>
       </c>
     </row>
-    <row r="74" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>19.624239301765492</v>
       </c>
     </row>
-    <row r="75" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>18.787899010528712</v>
       </c>
     </row>
-    <row r="76" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>18.289933860436982</v>
       </c>
     </row>
-    <row r="77" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>17.94836504024439</v>
       </c>
     </row>
-    <row r="78" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>17.834656495800054</v>
       </c>
     </row>
-    <row r="79" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>17.695588358714623</v>
       </c>
     </row>
-    <row r="80" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>16.022146111640104</v>
       </c>
     </row>
-    <row r="81" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -13666,7 +13666,7 @@
       <c r="EW81" s="4"/>
       <c r="EX81" s="4"/>
     </row>
-    <row r="82" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="EW82" s="4"/>
       <c r="EX82" s="4"/>
     </row>
-    <row r="83" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>14.554047849610692</v>
       </c>
     </row>
-    <row r="84" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -14152,7 +14152,7 @@
       <c r="DH84" s="1"/>
       <c r="DI84" s="1"/>
     </row>
-    <row r="85" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>10.87841745751485</v>
       </c>
     </row>
-    <row r="86" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>9.2380863416767269</v>
       </c>
     </row>
-    <row r="87" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="EW87" s="4"/>
       <c r="EX87" s="4"/>
     </row>
-    <row r="88" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -14841,7 +14841,7 @@
       <c r="EW88" s="4"/>
       <c r="EX88" s="4"/>
     </row>
-    <row r="89" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>16.877313635420244</v>
       </c>
     </row>
-    <row r="90" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>18.562757870380729</v>
       </c>
     </row>
-    <row r="91" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -15321,7 +15321,7 @@
       <c r="EW91" s="4"/>
       <c r="EX91" s="4"/>
     </row>
-    <row r="92" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>19.089871175715366</v>
       </c>
     </row>
-    <row r="93" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -15580,7 +15580,7 @@
       <c r="DG93" s="1"/>
       <c r="DI93" s="1"/>
     </row>
-    <row r="94" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -15689,7 +15689,7 @@
       <c r="DG94" s="1"/>
       <c r="DI94" s="1"/>
     </row>
-    <row r="95" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>21.601680665483933</v>
       </c>
     </row>
-    <row r="96" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>21.468756440660421</v>
       </c>
     </row>
-    <row r="97" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -16177,7 +16177,7 @@
       <c r="EW97" s="4"/>
       <c r="EX97" s="4"/>
     </row>
-    <row r="98" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -16286,7 +16286,7 @@
       <c r="DG98" s="1"/>
       <c r="DI98" s="1"/>
     </row>
-    <row r="99" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>19.759075893792392</v>
       </c>
     </row>
-    <row r="100" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -16545,7 +16545,7 @@
       <c r="DG100" s="1"/>
       <c r="DI100" s="1"/>
     </row>
-    <row r="101" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>54</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>21.063108375250714</v>
       </c>
     </row>
-    <row r="102" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>19.674279405542912</v>
       </c>
     </row>
-    <row r="103" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>20.636208614892588</v>
       </c>
     </row>
-    <row r="104" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -17150,7 +17150,7 @@
       <c r="DG104" s="1"/>
       <c r="DI104" s="1"/>
     </row>
-    <row r="105" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>21.11476259046119</v>
       </c>
     </row>
-    <row r="106" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="DG106" s="1"/>
       <c r="DI106" s="1"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>20.159970686496727</v>
       </c>
     </row>
-    <row r="108" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>19.645306662537187</v>
       </c>
     </row>
-    <row r="109" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -17861,7 +17861,7 @@
       <c r="DG109" s="1"/>
       <c r="DI109" s="1"/>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>20.095890601932346</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>20.879092161793615</v>
       </c>
     </row>
-    <row r="112" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -18268,7 +18268,7 @@
       <c r="DG112" s="1"/>
       <c r="DI112" s="1"/>
     </row>
-    <row r="113" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>21.680013908192429</v>
       </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -18531,7 +18531,7 @@
       <c r="DG114" s="1"/>
       <c r="DI114" s="1"/>
     </row>
-    <row r="115" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>19.133186353574324</v>
       </c>
     </row>
-    <row r="116" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -18790,7 +18790,7 @@
       <c r="DG116" s="1"/>
       <c r="DI116" s="1"/>
     </row>
-    <row r="117" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>20.196152723990998</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -19104,7 +19104,7 @@
       <c r="DG118" s="1"/>
       <c r="DI118" s="1"/>
     </row>
-    <row r="119" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>20.477930447183375</v>
       </c>
     </row>
-    <row r="120" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>20.547789339644517</v>
       </c>
     </row>
-    <row r="121" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>18.804889124764038</v>
       </c>
     </row>
-    <row r="122" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>19.521338224952054</v>
       </c>
     </row>
-    <row r="123" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>18.498417595260115</v>
       </c>
     </row>
-    <row r="124" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>18.902141532570063</v>
       </c>
     </row>
-    <row r="125" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>18.445495730645014</v>
       </c>
     </row>
-    <row r="126" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -20327,7 +20327,7 @@
       <c r="EW126" s="4"/>
       <c r="EX126" s="4"/>
     </row>
-    <row r="127" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -20498,7 +20498,7 @@
       <c r="EW127" s="4"/>
       <c r="EX127" s="4"/>
     </row>
-    <row r="128" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>15.430091137947278</v>
       </c>
     </row>
-    <row r="129" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -20792,7 +20792,7 @@
       <c r="DG129" s="1"/>
       <c r="DI129" s="1"/>
     </row>
-    <row r="130" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>13.366367520272627</v>
       </c>
     </row>
-    <row r="131" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>8.7299418708353542</v>
       </c>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>55</v>
       </c>
@@ -21292,7 +21292,7 @@
       <c r="EW132" s="4"/>
       <c r="EX132" s="4"/>
     </row>
-    <row r="133" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>55</v>
       </c>
@@ -21473,7 +21473,7 @@
       <c r="EW133" s="4"/>
       <c r="EX133" s="4"/>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>55</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>22.037314182138182</v>
       </c>
     </row>
-    <row r="135" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>55</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>22.481730705694808</v>
       </c>
     </row>
-    <row r="136" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -21954,7 +21954,7 @@
       <c r="EW136" s="4"/>
       <c r="EX136" s="4"/>
     </row>
-    <row r="137" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>24.088280388475631</v>
       </c>
     </row>
-    <row r="138" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>55</v>
       </c>
@@ -22216,7 +22216,7 @@
       <c r="DH138" s="1"/>
       <c r="DI138" s="1"/>
     </row>
-    <row r="139" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>55</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>27.52826765502909</v>
       </c>
     </row>
-    <row r="140" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>55</v>
       </c>
@@ -22478,7 +22478,7 @@
       <c r="DH140" s="1"/>
       <c r="DI140" s="1"/>
     </row>
-    <row r="141" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>55</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>26.648217614818229</v>
       </c>
     </row>
-    <row r="142" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>55</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>29.267741562633425</v>
       </c>
     </row>
-    <row r="143" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>55</v>
       </c>
@@ -22947,7 +22947,7 @@
       <c r="DH143" s="1"/>
       <c r="DI143" s="1"/>
     </row>
-    <row r="144" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>55</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>31.502243617856386</v>
       </c>
     </row>
-    <row r="145" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>25.552738658514038</v>
       </c>
     </row>
-    <row r="146" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -23356,7 +23356,7 @@
       <c r="DH146" s="1"/>
       <c r="DI146" s="1"/>
     </row>
-    <row r="147" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>55</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>25.667328507499839</v>
       </c>
     </row>
-    <row r="148" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -23617,7 +23617,7 @@
       <c r="DH148" s="1"/>
       <c r="DI148" s="1"/>
     </row>
-    <row r="149" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>55</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>26.496959014156978</v>
       </c>
     </row>
-    <row r="150" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>55</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>26.790309027560603</v>
       </c>
     </row>
-    <row r="151" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>55</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>26.36585896297256</v>
       </c>
     </row>
-    <row r="152" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>55</v>
       </c>
@@ -24225,7 +24225,7 @@
       <c r="DH152" s="1"/>
       <c r="DI152" s="1"/>
     </row>
-    <row r="153" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>55</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>25.465211345077201</v>
       </c>
     </row>
-    <row r="154" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>55</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>24.004039735070968</v>
       </c>
     </row>
-    <row r="155" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>25.391681680422742</v>
       </c>
     </row>
-    <row r="156" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>55</v>
       </c>
@@ -24882,7 +24882,7 @@
         <v>25.460882323103796</v>
       </c>
     </row>
-    <row r="157" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>25.837528823405869</v>
       </c>
     </row>
-    <row r="158" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>26.232987950932717</v>
       </c>
     </row>
-    <row r="159" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>55</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>26.63807947249969</v>
       </c>
     </row>
-    <row r="160" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>55</v>
       </c>
@@ -25454,7 +25454,7 @@
       <c r="DH160" s="1"/>
       <c r="DI160" s="1"/>
     </row>
-    <row r="161" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>26.706739052426308</v>
       </c>
     </row>
-    <row r="162" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>55</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>23.075783602468952</v>
       </c>
     </row>
-    <row r="163" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>25.446939858118704</v>
       </c>
     </row>
-    <row r="164" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>55</v>
       </c>
@@ -26111,7 +26111,7 @@
         <v>24.236736227595053</v>
       </c>
     </row>
-    <row r="165" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>26.400034566321359</v>
       </c>
     </row>
-    <row r="166" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>24.887647769221523</v>
       </c>
     </row>
-    <row r="167" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>55</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>24.713297890096662</v>
       </c>
     </row>
-    <row r="168" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>55</v>
       </c>
@@ -26741,7 +26741,7 @@
       <c r="EW168" s="4"/>
       <c r="EX168" s="4"/>
     </row>
-    <row r="169" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>55</v>
       </c>
@@ -26891,7 +26891,7 @@
         <v>24.865946487322056</v>
       </c>
     </row>
-    <row r="170" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>55</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>24.734978405841112</v>
       </c>
     </row>
-    <row r="171" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>26.189858839145778</v>
       </c>
     </row>
-    <row r="172" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>25.761665175829343</v>
       </c>
     </row>
-    <row r="173" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -27491,7 +27491,7 @@
         <v>24.441791562110744</v>
       </c>
     </row>
-    <row r="174" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -27669,7 +27669,7 @@
       <c r="EW174" s="4"/>
       <c r="EX174" s="4"/>
     </row>
-    <row r="175" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>23.916793589872533</v>
       </c>
     </row>
-    <row r="176" spans="1:154" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -28000,7 +28000,7 @@
       <c r="EW176" s="4"/>
       <c r="EX176" s="4"/>
     </row>
-    <row r="177" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -28153,7 +28153,7 @@
       <c r="DH177" s="1"/>
       <c r="DI177" s="1"/>
     </row>
-    <row r="178" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>55</v>
       </c>
@@ -28303,7 +28303,7 @@
         <v>25.576177902198374</v>
       </c>
     </row>
-    <row r="179" spans="1:113" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608437E8-69BE-4ABE-B203-A7BE37DE1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235964F2-325F-4E4F-8E80-CA5EF62A7782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -290,13 +290,7 @@
     <t>StartSquaring</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Wt</t>
-  </si>
-  <si>
     <t>Cotton.Sites</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.N</t>
   </si>
   <si>
     <t>Cotton.Stem.N</t>
@@ -398,13 +392,7 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.HarvestIndex</t>
   </si>
   <si>
     <t>Yield_bales</t>
@@ -414,9 +402,6 @@
   </si>
   <si>
     <t>AboveGround.Partitioning.Leaf</t>
-  </si>
-  <si>
-    <t>AboveGround.Partitioning.Fruit</t>
   </si>
   <si>
     <t>LeafArea.Site</t>
@@ -573,6 +558,21 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.Wt</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.NConc</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.N</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.HarvestIndex</t>
+  </si>
+  <si>
+    <t>AboveGround.Partitioning.Boll</t>
   </si>
 </sst>
 </file>
@@ -944,10 +944,10 @@
   <dimension ref="A1:EX179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BL98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BT130" sqref="BT130"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1117,13 +1117,13 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
         <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" t="s">
-        <v>104</v>
       </c>
       <c r="L1" t="s">
         <v>59</v>
@@ -1135,10 +1135,10 @@
         <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s">
         <v>60</v>
@@ -1150,7 +1150,7 @@
         <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U1" t="s">
         <v>76</v>
@@ -1159,7 +1159,7 @@
         <v>62</v>
       </c>
       <c r="W1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X1" t="s">
         <v>17</v>
@@ -1183,19 +1183,19 @@
         <v>64</v>
       </c>
       <c r="AE1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AG1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AH1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AJ1" t="s">
         <v>65</v>
@@ -1204,130 +1204,130 @@
         <v>67</v>
       </c>
       <c r="AL1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AM1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AN1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AP1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AQ1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AR1" t="s">
         <v>66</v>
       </c>
       <c r="AS1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AT1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AU1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" t="s">
         <v>115</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BF1" t="s">
         <v>116</v>
       </c>
-      <c r="AZ1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>117</v>
       </c>
-      <c r="BF1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>119</v>
-      </c>
       <c r="BH1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="BI1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BJ1" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="BK1" t="s">
         <v>68</v>
       </c>
       <c r="BL1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BM1" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="BN1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY1" t="s">
         <v>121</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>125</v>
-      </c>
       <c r="BZ1" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="CA1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CB1" t="s">
         <v>4</v>
@@ -1342,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="CF1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CG1" t="s">
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="CI1" t="s">
         <v>51</v>
@@ -1363,91 +1363,91 @@
         <v>73</v>
       </c>
       <c r="CM1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CN1" t="s">
         <v>74</v>
       </c>
       <c r="CO1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="CP1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA1" t="s">
         <v>164</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN1" t="s">
         <v>89</v>
       </c>
-      <c r="CS1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" t="s">
+      <c r="DO1" t="s">
         <v>171</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>176</v>
       </c>
       <c r="DP1" t="s">
         <v>46</v>
@@ -1456,49 +1456,49 @@
         <v>22</v>
       </c>
       <c r="DR1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="DS1" t="s">
         <v>23</v>
       </c>
       <c r="DT1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="DU1" t="s">
         <v>24</v>
       </c>
       <c r="DV1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="DW1" t="s">
         <v>25</v>
       </c>
       <c r="DX1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="DY1" t="s">
         <v>26</v>
       </c>
       <c r="DZ1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="EA1" t="s">
         <v>27</v>
       </c>
       <c r="EB1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="EC1" t="s">
         <v>28</v>
       </c>
       <c r="ED1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="EE1" t="s">
         <v>29</v>
       </c>
       <c r="EF1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="EG1" t="s">
         <v>47</v>
@@ -1560,7 +1560,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2">
         <v>39000</v>
@@ -1751,7 +1751,7 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2">
         <v>39009</v>
@@ -1942,7 +1942,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2">
         <v>39043</v>
@@ -2108,7 +2108,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>39051</v>
@@ -2274,7 +2274,7 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>39052</v>
@@ -2464,7 +2464,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2">
         <v>39055</v>
@@ -2630,7 +2630,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2">
         <v>39057</v>
@@ -2757,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2">
         <v>39064</v>
@@ -2931,7 +2931,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2">
         <v>39069</v>
@@ -3105,7 +3105,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2">
         <v>39071</v>
@@ -3324,7 +3324,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <v>39074</v>
@@ -3489,7 +3489,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2">
         <v>39080</v>
@@ -3615,7 +3615,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2">
         <v>39081</v>
@@ -3780,7 +3780,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2">
         <v>39085</v>
@@ -3906,7 +3906,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2">
         <v>39086</v>
@@ -4121,7 +4121,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2">
         <v>39093</v>
@@ -4247,7 +4247,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2">
         <v>39094</v>
@@ -4411,7 +4411,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2">
         <v>39098</v>
@@ -4584,7 +4584,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>39101</v>
@@ -4750,7 +4750,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2">
         <v>39104</v>
@@ -4921,7 +4921,7 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2">
         <v>39105</v>
@@ -4930,7 +4930,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
@@ -5052,7 +5052,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2">
         <v>39107</v>
@@ -5217,7 +5217,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2">
         <v>39111</v>
@@ -5343,7 +5343,7 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2">
         <v>39113</v>
@@ -5509,7 +5509,7 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2">
         <v>39117</v>
@@ -5675,7 +5675,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2">
         <v>39120</v>
@@ -5849,7 +5849,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2">
         <v>39126</v>
@@ -6028,7 +6028,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2">
         <v>39129</v>
@@ -6193,7 +6193,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2">
         <v>39135</v>
@@ -6359,7 +6359,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2">
         <v>39146</v>
@@ -6525,7 +6525,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2">
         <v>39150</v>
@@ -6691,7 +6691,7 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2">
         <v>39151</v>
@@ -6881,7 +6881,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2">
         <v>39157</v>
@@ -7047,7 +7047,7 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2">
         <v>39161</v>
@@ -7236,7 +7236,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2">
         <v>39162</v>
@@ -7423,7 +7423,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2">
         <v>39167</v>
@@ -7591,7 +7591,7 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2">
         <v>39168</v>
@@ -7757,7 +7757,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2">
         <v>39176</v>
@@ -7923,7 +7923,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2">
         <v>39000</v>
@@ -8118,7 +8118,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2">
         <v>39009</v>
@@ -8313,7 +8313,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2">
         <v>39043</v>
@@ -8481,7 +8481,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2">
         <v>39051</v>
@@ -8649,7 +8649,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2">
         <v>39052</v>
@@ -8844,7 +8844,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2">
         <v>39055</v>
@@ -9012,7 +9012,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2">
         <v>39057</v>
@@ -9188,7 +9188,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2">
         <v>39059</v>
@@ -9356,7 +9356,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2">
         <v>39061</v>
@@ -9524,7 +9524,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2">
         <v>39064</v>
@@ -9657,7 +9657,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2">
         <v>39065</v>
@@ -9825,7 +9825,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2">
         <v>39069</v>
@@ -10001,7 +10001,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2">
         <v>39071</v>
@@ -10178,7 +10178,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2">
         <v>39074</v>
@@ -10346,7 +10346,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2">
         <v>39079</v>
@@ -10514,7 +10514,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2">
         <v>39080</v>
@@ -10647,7 +10647,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2">
         <v>39081</v>
@@ -10815,7 +10815,7 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2">
         <v>39085</v>
@@ -10948,7 +10948,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2">
         <v>39086</v>
@@ -11163,7 +11163,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2">
         <v>39093</v>
@@ -11296,7 +11296,7 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2">
         <v>39094</v>
@@ -11464,7 +11464,7 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2">
         <v>39098</v>
@@ -11640,7 +11640,7 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2">
         <v>39101</v>
@@ -11808,7 +11808,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2">
         <v>39104</v>
@@ -11982,7 +11982,7 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2">
         <v>39105</v>
@@ -12150,7 +12150,7 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2">
         <v>39109</v>
@@ -12159,7 +12159,7 @@
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
@@ -12326,7 +12326,7 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2">
         <v>39111</v>
@@ -12459,7 +12459,7 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2">
         <v>39113</v>
@@ -12627,7 +12627,7 @@
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2">
         <v>39114</v>
@@ -12795,7 +12795,7 @@
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2">
         <v>39117</v>
@@ -12963,7 +12963,7 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2">
         <v>39121</v>
@@ -13131,7 +13131,7 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2">
         <v>39122</v>
@@ -13264,7 +13264,7 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2">
         <v>39125</v>
@@ -13432,7 +13432,7 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2">
         <v>39126</v>
@@ -13656,7 +13656,7 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2">
         <v>39129</v>
@@ -13824,7 +13824,7 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2">
         <v>39135</v>
@@ -13992,7 +13992,7 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2">
         <v>39136</v>
@@ -14160,7 +14160,7 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2">
         <v>39140</v>
@@ -14328,7 +14328,7 @@
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2">
         <v>39146</v>
@@ -14496,7 +14496,7 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2">
         <v>39150</v>
@@ -14664,7 +14664,7 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2">
         <v>39157</v>
@@ -14832,7 +14832,7 @@
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2">
         <v>39158</v>
@@ -15027,7 +15027,7 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2">
         <v>39161</v>
@@ -15221,7 +15221,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2">
         <v>39162</v>
@@ -15389,7 +15389,7 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2">
         <v>39167</v>
@@ -15561,7 +15561,7 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2">
         <v>39168</v>
@@ -15750,7 +15750,7 @@
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2">
         <v>39176</v>
@@ -15918,7 +15918,7 @@
         <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2">
         <v>39000</v>
@@ -16113,7 +16113,7 @@
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2">
         <v>39009</v>
@@ -16308,7 +16308,7 @@
         <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2">
         <v>39043</v>
@@ -16476,7 +16476,7 @@
         <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2">
         <v>39051</v>
@@ -16644,7 +16644,7 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2">
         <v>39052</v>
@@ -16834,7 +16834,7 @@
         <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>39055</v>
@@ -17002,7 +17002,7 @@
         <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2">
         <v>39057</v>
@@ -17129,7 +17129,7 @@
         <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2">
         <v>39064</v>
@@ -17256,7 +17256,7 @@
         <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>39065</v>
@@ -17424,7 +17424,7 @@
         <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2">
         <v>39069</v>
@@ -17600,7 +17600,7 @@
         <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2">
         <v>39071</v>
@@ -17790,7 +17790,7 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2">
         <v>39080</v>
@@ -17917,7 +17917,7 @@
         <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2">
         <v>39081</v>
@@ -18085,7 +18085,7 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2">
         <v>39085</v>
@@ -18212,7 +18212,7 @@
         <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2">
         <v>39086</v>
@@ -18429,7 +18429,7 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2">
         <v>39089</v>
@@ -18596,7 +18596,7 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2">
         <v>39092</v>
@@ -18763,7 +18763,7 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2">
         <v>39093</v>
@@ -18889,7 +18889,7 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2">
         <v>39094</v>
@@ -19057,7 +19057,7 @@
         <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2">
         <v>39098</v>
@@ -19184,7 +19184,7 @@
         <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2">
         <v>39099</v>
@@ -19352,7 +19352,7 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2">
         <v>39102</v>
@@ -19520,7 +19520,7 @@
         <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2">
         <v>39104</v>
@@ -19690,7 +19690,7 @@
         <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2">
         <v>39107</v>
@@ -19857,7 +19857,7 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2">
         <v>39110</v>
@@ -20024,7 +20024,7 @@
         <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2">
         <v>39111</v>
@@ -20151,7 +20151,7 @@
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2">
         <v>39113</v>
@@ -20319,7 +20319,7 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2">
         <v>39114</v>
@@ -20328,7 +20328,7 @@
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F114" t="s">
         <v>57</v>
@@ -20447,7 +20447,7 @@
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2">
         <v>39120</v>
@@ -20615,7 +20615,7 @@
         <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2">
         <v>39122</v>
@@ -20742,7 +20742,7 @@
         <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2">
         <v>39123</v>
@@ -20910,7 +20910,7 @@
         <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2">
         <v>39126</v>
@@ -21089,7 +21089,7 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C119" s="2">
         <v>39129</v>
@@ -21256,7 +21256,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C120" s="2">
         <v>39132</v>
@@ -21424,7 +21424,7 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2">
         <v>39136</v>
@@ -21592,7 +21592,7 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2">
         <v>39140</v>
@@ -21760,7 +21760,7 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2">
         <v>39146</v>
@@ -21928,7 +21928,7 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2">
         <v>39150</v>
@@ -22096,7 +22096,7 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2">
         <v>39157</v>
@@ -22264,7 +22264,7 @@
         <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2">
         <v>39159</v>
@@ -22448,7 +22448,7 @@
         <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2">
         <v>39161</v>
@@ -22631,7 +22631,7 @@
         <v>54</v>
       </c>
       <c r="B128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2">
         <v>39162</v>
@@ -22799,7 +22799,7 @@
         <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2">
         <v>39167</v>
@@ -22961,7 +22961,7 @@
         <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2">
         <v>39168</v>
@@ -23150,7 +23150,7 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2">
         <v>39175</v>
@@ -23318,7 +23318,7 @@
         <v>55</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2">
         <v>39000</v>
@@ -23511,7 +23511,7 @@
         <v>55</v>
       </c>
       <c r="B133" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2">
         <v>39009</v>
@@ -23704,7 +23704,7 @@
         <v>55</v>
       </c>
       <c r="B134" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2">
         <v>39043</v>
@@ -23875,7 +23875,7 @@
         <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2">
         <v>39051</v>
@@ -24046,7 +24046,7 @@
         <v>55</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2">
         <v>39052</v>
@@ -24239,7 +24239,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2">
         <v>39055</v>
@@ -24410,7 +24410,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2">
         <v>39057</v>
@@ -24543,7 +24543,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C139" s="2">
         <v>39063</v>
@@ -24714,7 +24714,7 @@
         <v>55</v>
       </c>
       <c r="B140" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2">
         <v>39064</v>
@@ -24847,7 +24847,7 @@
         <v>55</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2">
         <v>39065</v>
@@ -25018,7 +25018,7 @@
         <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C142" s="2">
         <v>39069</v>
@@ -25197,7 +25197,7 @@
         <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2">
         <v>39071</v>
@@ -25376,7 +25376,7 @@
         <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C144" s="2">
         <v>39074</v>
@@ -25546,7 +25546,7 @@
         <v>55</v>
       </c>
       <c r="B145" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2">
         <v>39079</v>
@@ -25716,7 +25716,7 @@
         <v>55</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2">
         <v>39080</v>
@@ -25848,7 +25848,7 @@
         <v>55</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C147" s="2">
         <v>39081</v>
@@ -26018,7 +26018,7 @@
         <v>55</v>
       </c>
       <c r="B148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2">
         <v>39085</v>
@@ -26151,7 +26151,7 @@
         <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C149" s="2">
         <v>39086</v>
@@ -26371,7 +26371,7 @@
         <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C150" s="2">
         <v>39089</v>
@@ -26541,7 +26541,7 @@
         <v>55</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C151" s="2">
         <v>39092</v>
@@ -26711,7 +26711,7 @@
         <v>55</v>
       </c>
       <c r="B152" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2">
         <v>39093</v>
@@ -26843,7 +26843,7 @@
         <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2">
         <v>39094</v>
@@ -27014,7 +27014,7 @@
         <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2">
         <v>39098</v>
@@ -27193,7 +27193,7 @@
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2">
         <v>39101</v>
@@ -27364,7 +27364,7 @@
         <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C156" s="2">
         <v>39104</v>
@@ -27584,7 +27584,7 @@
         <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2">
         <v>39107</v>
@@ -27754,7 +27754,7 @@
         <v>55</v>
       </c>
       <c r="B158" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C158" s="2">
         <v>39111</v>
@@ -27932,7 +27932,7 @@
         <v>55</v>
       </c>
       <c r="B159" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C159" s="2">
         <v>39114</v>
@@ -28103,7 +28103,7 @@
         <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C160" s="2">
         <v>39116</v>
@@ -28112,7 +28112,7 @@
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F160" t="s">
         <v>57</v>
@@ -28237,7 +28237,7 @@
         <v>55</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C161" s="2">
         <v>39117</v>
@@ -28408,7 +28408,7 @@
         <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C162" s="2">
         <v>39120</v>
@@ -28587,7 +28587,7 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C163" s="2">
         <v>39125</v>
@@ -28758,7 +28758,7 @@
         <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C164" s="2">
         <v>39126</v>
@@ -28978,7 +28978,7 @@
         <v>55</v>
       </c>
       <c r="B165" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C165" s="2">
         <v>39129</v>
@@ -29148,7 +29148,7 @@
         <v>55</v>
       </c>
       <c r="B166" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C166" s="2">
         <v>39136</v>
@@ -29319,7 +29319,7 @@
         <v>55</v>
       </c>
       <c r="B167" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C167" s="2">
         <v>39140</v>
@@ -29490,7 +29490,7 @@
         <v>55</v>
       </c>
       <c r="B168" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C168" s="2">
         <v>39143</v>
@@ -29683,7 +29683,7 @@
         <v>55</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C169" s="2">
         <v>39146</v>
@@ -29854,7 +29854,7 @@
         <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C170" s="2">
         <v>39150</v>
@@ -30025,7 +30025,7 @@
         <v>55</v>
       </c>
       <c r="B171" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C171" s="2">
         <v>39153</v>
@@ -30196,7 +30196,7 @@
         <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C172" s="2">
         <v>39154</v>
@@ -30367,7 +30367,7 @@
         <v>55</v>
       </c>
       <c r="B173" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C173" s="2">
         <v>39157</v>
@@ -30538,7 +30538,7 @@
         <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C174" s="2">
         <v>39161</v>
@@ -30730,7 +30730,7 @@
         <v>55</v>
       </c>
       <c r="B175" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2">
         <v>39162</v>
@@ -30901,7 +30901,7 @@
         <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C176" s="2">
         <v>39163</v>
@@ -31094,7 +31094,7 @@
         <v>55</v>
       </c>
       <c r="B177" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C177" s="2">
         <v>39167</v>
@@ -31268,7 +31268,7 @@
         <v>55</v>
       </c>
       <c r="B178" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C178" s="2">
         <v>39168</v>
@@ -31439,7 +31439,7 @@
         <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C179" s="2">
         <v>39175</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753202EB-04CE-4031-836B-0C60CC6C6EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D5D80-A097-4EE2-8DF8-B2C0A68C9FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -918,11 +918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911DF83-7300-4B7A-8A42-16858D40307A}">
   <dimension ref="A1:EP179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28130,7 +28130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF094389-BD58-4B4E-A4EC-4B115D6183DC}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri0607Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D5D80-A097-4EE2-8DF8-B2C0A68C9FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0901E-91B7-4947-BFB5-EAFD4E52372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911DF83-7300-4B7A-8A42-16858D40307A}">
   <dimension ref="A1:EP179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -28128,9 +28128,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF094389-BD58-4B4E-A4EC-4B115D6183DC}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28274,6 +28274,105 @@
         <v>175</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
